--- a/assets/wankey_UI_Task_list_detail.xlsx
+++ b/assets/wankey_UI_Task_list_detail.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyApplication\Lupa\Lupa\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyApplication\lupa\Lupa\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="login and register" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
   <si>
     <t>Module</t>
   </si>
@@ -150,12 +150,6 @@
     <t>status_message , success=1 (successfully logging in), success=0 (validation errors)</t>
   </si>
   <si>
-    <t>name, email, phone, department, password</t>
-  </si>
-  <si>
-    <t>Register page</t>
-  </si>
-  <si>
     <t>http://kaizenat.com/LUPA/user/login</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
   </si>
   <si>
     <t>http://kaizenat.com/LUPA/user/password/forgotpassword/otp</t>
-  </si>
-  <si>
-    <t>http://kaizenat.com/LUPA/user/register</t>
   </si>
   <si>
     <t>status_response ,  success= 1(Sucessfully takes to otp page ) success = 1 (Validation Errors)</t>
@@ -309,41 +300,6 @@
         <family val="2"/>
       </rPr>
       <t>In Progress</t>
-    </r>
-  </si>
-  <si>
-    <t>Task Completion date</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UI :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Integration :</t>
     </r>
   </si>
   <si>
@@ -846,19 +802,43 @@
     </r>
   </si>
   <si>
-    <t>19/12/2018 : API integration is completed but finding issue with phone field. Kindly have  a look.</t>
-  </si>
-  <si>
     <t>19/12/2018 : API integration is completed.Test case: admin@kaizenat.com , password:123456</t>
   </si>
   <si>
     <t>19/12/2018: API integration is completed. Test case: user@kaizenat.com , password:123456</t>
+  </si>
+  <si>
+    <t>Task End Date</t>
+  </si>
+  <si>
+    <t>Task Start Date</t>
+  </si>
+  <si>
+    <t>17/12/2018</t>
+  </si>
+  <si>
+    <t>19/12/2018</t>
+  </si>
+  <si>
+    <t>Targeted End Date</t>
+  </si>
+  <si>
+    <t>22/12/2018</t>
+  </si>
+  <si>
+    <t>21/12/2018</t>
+  </si>
+  <si>
+    <t>18/12/2018</t>
+  </si>
+  <si>
+    <t>23/12/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -935,7 +915,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -944,29 +924,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -974,8 +943,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -985,36 +970,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1341,631 +1306,725 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="8" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" style="8" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="33.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="33.54296875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="50.453125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="50.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="37.5" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="37.5" customHeight="1">
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="255">
+      <c r="B14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="39">
+      <c r="A15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="77.25">
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:10" s="6" customFormat="1" ht="57.75">
+      <c r="B17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="39">
+      <c r="B18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="39">
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="2:10" s="6" customFormat="1" ht="255">
+      <c r="B25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="2:10" s="6" customFormat="1" ht="33" customHeight="1">
+      <c r="B28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="6" customFormat="1" ht="43.5" customHeight="1">
+      <c r="B29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" s="6" customFormat="1" ht="43.5" customHeight="1">
+      <c r="B30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" s="6" customFormat="1" ht="39" customHeight="1">
+      <c r="B31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" s="6" customFormat="1" ht="39.75" customHeight="1">
+      <c r="B32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="F33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="2:10" s="6" customFormat="1" ht="255">
+      <c r="B36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="71" thickBot="1">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57" thickBot="1">
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="71" thickBot="1">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" thickBot="1">
-      <c r="B6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" thickBot="1">
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" thickBot="1">
-      <c r="B8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" thickBot="1">
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" thickBot="1">
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" thickBot="1">
-      <c r="B11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" thickBot="1">
-      <c r="B12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" thickBot="1">
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="247" thickBot="1">
-      <c r="B14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="8" t="s">
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B38" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="39" thickBot="1">
-      <c r="A15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="64" thickBot="1">
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="57" thickBot="1">
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="39" thickBot="1">
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="39" thickBot="1">
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="27" thickBot="1">
-      <c r="B20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="27" thickBot="1">
-      <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="27" thickBot="1">
-      <c r="B22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="27" thickBot="1">
-      <c r="B23" s="1" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="27" thickBot="1">
-      <c r="B24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="247" thickBot="1">
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43" thickBot="1">
-      <c r="A26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="51.5" thickBot="1">
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="57" thickBot="1">
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="51.5" thickBot="1">
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="51.5" thickBot="1">
-      <c r="B30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="64" thickBot="1">
-      <c r="B31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="27" thickBot="1">
-      <c r="B32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="F32" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="27" thickBot="1">
-      <c r="B33" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="27" thickBot="1">
-      <c r="B34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="246.5">
-      <c r="B35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1976,17 +2035,16 @@
     <hyperlink ref="C15" r:id="rId5"/>
     <hyperlink ref="C18" r:id="rId6"/>
     <hyperlink ref="C19" r:id="rId7"/>
-    <hyperlink ref="C26" r:id="rId8"/>
-    <hyperlink ref="C27" r:id="rId9"/>
-    <hyperlink ref="C28" r:id="rId10"/>
-    <hyperlink ref="C29" r:id="rId11"/>
-    <hyperlink ref="C30" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C31" r:id="rId15"/>
+    <hyperlink ref="C28" r:id="rId8"/>
+    <hyperlink ref="C29" r:id="rId9"/>
+    <hyperlink ref="C30" r:id="rId10"/>
+    <hyperlink ref="C31" r:id="rId11"/>
+    <hyperlink ref="C17" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C32" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId16"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -1998,17 +2056,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2020,48 +2078,48 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2077,48 +2135,48 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1">
-      <c r="A1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="29">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2134,44 +2192,44 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="49.26953125" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>66</v>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2187,11 +2245,11 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/assets/wankey_UI_Task_list_detail.xlsx
+++ b/assets/wankey_UI_Task_list_detail.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
   <si>
     <t>Module</t>
   </si>
@@ -561,9 +561,6 @@
     <t>Favourites</t>
   </si>
   <si>
-    <t>Cost  Analytics</t>
-  </si>
-  <si>
     <t>Report license dashboard</t>
   </si>
   <si>
@@ -802,9 +799,6 @@
     </r>
   </si>
   <si>
-    <t>19/12/2018 : API integration is completed.Test case: admin@kaizenat.com , password:123456</t>
-  </si>
-  <si>
     <t>19/12/2018: API integration is completed. Test case: user@kaizenat.com , password:123456</t>
   </si>
   <si>
@@ -833,6 +827,147 @@
   </si>
   <si>
     <t>23/12/2018</t>
+  </si>
+  <si>
+    <t>24/12/2018</t>
+  </si>
+  <si>
+    <t>25/12/2018</t>
+  </si>
+  <si>
+    <t>26/12/2018</t>
+  </si>
+  <si>
+    <t>30/12/2018</t>
+  </si>
+  <si>
+    <t>27/12/2018</t>
+  </si>
+  <si>
+    <t>28/12/2018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Completed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Integration : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Completed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Integration : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Completd</t>
+    </r>
+  </si>
+  <si>
+    <t>19/12/2018 : API integration is completed.Test case: nageshwararao1996@gmail.com , password:123456</t>
   </si>
 </sst>
 </file>
@@ -943,7 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -981,6 +1116,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1306,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1321,7 +1468,7 @@
     <col min="5" max="5" width="33.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="17" customWidth="1"/>
     <col min="9" max="9" width="23.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="50.42578125" style="2" customWidth="1"/>
   </cols>
@@ -1346,13 +1493,13 @@
         <v>70</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>68</v>
@@ -1375,19 +1522,19 @@
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1">
@@ -1404,16 +1551,16 @@
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="I3" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="37.5" customHeight="1">
@@ -1430,16 +1577,16 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="37.5" customHeight="1">
@@ -1456,21 +1603,21 @@
         <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="9"/>
@@ -1478,29 +1625,31 @@
       <c r="F6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9"/>
@@ -1509,7 +1658,9 @@
         <v>71</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="26.25">
@@ -1523,7 +1674,9 @@
         <v>71</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="26.25">
@@ -1537,7 +1690,9 @@
         <v>74</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="16">
+        <v>43525</v>
+      </c>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" ht="26.25">
@@ -1551,12 +1706,14 @@
         <v>74</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="16">
+        <v>43525</v>
+      </c>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B12" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="9"/>
@@ -1565,231 +1722,257 @@
         <v>74</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="16">
+        <v>43525</v>
+      </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="26.25">
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="255">
       <c r="B13" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>74</v>
+      <c r="F13" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="16">
+        <v>43525</v>
+      </c>
       <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="255">
+      <c r="J13" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="39">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6" t="s">
-        <v>77</v>
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" ht="39">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="77.25">
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" ht="77.25">
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="57.75">
       <c r="B16" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:10" s="6" customFormat="1" ht="57.75">
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="39">
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:10" s="6" customFormat="1" ht="39">
+    <row r="18" spans="1:10" s="6" customFormat="1" ht="39">
       <c r="B18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:10" s="6" customFormat="1" ht="39">
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="16">
+        <v>43556</v>
+      </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:10" s="6" customFormat="1" ht="26.25">
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B20" s="7" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="16">
+        <v>43678</v>
+      </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:10" s="6" customFormat="1" ht="26.25">
+    <row r="21" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="16">
+        <v>43678</v>
+      </c>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B22" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="2:10" s="6" customFormat="1" ht="26.25">
-      <c r="B22" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="16">
+        <v>43739</v>
+      </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="2:10" s="6" customFormat="1" ht="26.25">
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B23" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="16">
+        <v>43678</v>
+      </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="2:10" s="6" customFormat="1" ht="26.25">
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="255">
       <c r="B24" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>85</v>
+      <c r="F24" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="16">
+        <v>43678</v>
+      </c>
       <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="2:10" s="6" customFormat="1" ht="255">
+      <c r="J24" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B25" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="6" t="s">
-        <v>77</v>
+      <c r="F25" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" s="6" customFormat="1" ht="26.25">
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B26" s="7" t="s">
         <v>81</v>
       </c>
@@ -1797,206 +1980,221 @@
       <c r="D26" s="9"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="2:10" s="6" customFormat="1" ht="26.25">
-      <c r="B27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="6" customFormat="1" ht="43.5" customHeight="1">
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="2:10" s="6" customFormat="1" ht="33" customHeight="1">
-      <c r="B28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:10" s="6" customFormat="1" ht="43.5" customHeight="1">
+      <c r="B29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" ht="39" customHeight="1">
+      <c r="B30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" s="6" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" s="6" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="F30" s="7" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" s="6" customFormat="1" ht="39" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="6" customFormat="1" ht="39.75" customHeight="1">
       <c r="B31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>34</v>
+      <c r="D31" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" s="6" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="F32" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>100</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="2:10" s="6" customFormat="1" ht="26.25">
       <c r="B33" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="8"/>
+        <v>72</v>
+      </c>
       <c r="F33" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="H33" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="2:10" s="6" customFormat="1" ht="26.25">
       <c r="B34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="H34" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="2:10" s="6" customFormat="1" ht="26.25">
+    <row r="35" spans="2:10" s="6" customFormat="1" ht="255">
       <c r="B35" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="2:10" s="6" customFormat="1" ht="255">
-      <c r="B36" s="10" t="s">
+      <c r="J35" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>77</v>
+      <c r="C36" s="11"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="H36" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="I36" s="10"/>
-      <c r="J36" s="6" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="37" spans="2:10" s="6" customFormat="1" ht="26.25">
       <c r="B37" s="7" t="s">
@@ -2006,25 +2204,13 @@
       <c r="D37" s="9"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="H37" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="2:10" s="6" customFormat="1" ht="26.25">
-      <c r="B38" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2032,16 +2218,16 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C15" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C19" r:id="rId7"/>
-    <hyperlink ref="C28" r:id="rId8"/>
-    <hyperlink ref="C29" r:id="rId9"/>
-    <hyperlink ref="C30" r:id="rId10"/>
-    <hyperlink ref="C31" r:id="rId11"/>
-    <hyperlink ref="C17" r:id="rId12"/>
-    <hyperlink ref="C16" r:id="rId13"/>
-    <hyperlink ref="C32" r:id="rId14"/>
+    <hyperlink ref="C14" r:id="rId5"/>
+    <hyperlink ref="C17" r:id="rId6"/>
+    <hyperlink ref="C18" r:id="rId7"/>
+    <hyperlink ref="C27" r:id="rId8"/>
+    <hyperlink ref="C28" r:id="rId9"/>
+    <hyperlink ref="C29" r:id="rId10"/>
+    <hyperlink ref="C30" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C31" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId15"/>

--- a/assets/wankey_UI_Task_list_detail.xlsx
+++ b/assets/wankey_UI_Task_list_detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
   </bookViews>
   <sheets>
     <sheet name="login and register" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="111">
   <si>
     <t>Module</t>
   </si>
@@ -150,12 +150,6 @@
     <t>status_message , success=1 (successfully logging in), success=0 (validation errors)</t>
   </si>
   <si>
-    <t>name, email, phone, department, password</t>
-  </si>
-  <si>
-    <t>Register page</t>
-  </si>
-  <si>
     <t>http://kaizenat.com/LUPA/user/login</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
   </si>
   <si>
     <t>http://kaizenat.com/LUPA/user/password/forgotpassword/otp</t>
-  </si>
-  <si>
-    <t>http://kaizenat.com/LUPA/user/register</t>
   </si>
   <si>
     <t>status_response ,  success= 1(Sucessfully takes to otp page ) success = 1 (Validation Errors)</t>
@@ -309,41 +300,6 @@
         <family val="2"/>
       </rPr>
       <t>In Progress</t>
-    </r>
-  </si>
-  <si>
-    <t>Task Completion date</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UI :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Integration :</t>
     </r>
   </si>
   <si>
@@ -605,9 +561,6 @@
     <t>Favourites</t>
   </si>
   <si>
-    <t>Cost  Analytics</t>
-  </si>
-  <si>
     <t>Report license dashboard</t>
   </si>
   <si>
@@ -786,6 +739,177 @@
     </r>
   </si>
   <si>
+    <t>19/12/2018: API integration is completed. Test case: user@kaizenat.com , password:123456</t>
+  </si>
+  <si>
+    <t>Task End Date</t>
+  </si>
+  <si>
+    <t>Task Start Date</t>
+  </si>
+  <si>
+    <t>17/12/2018</t>
+  </si>
+  <si>
+    <t>19/12/2018</t>
+  </si>
+  <si>
+    <t>Targeted End Date</t>
+  </si>
+  <si>
+    <t>22/12/2018</t>
+  </si>
+  <si>
+    <t>21/12/2018</t>
+  </si>
+  <si>
+    <t>18/12/2018</t>
+  </si>
+  <si>
+    <t>23/12/2018</t>
+  </si>
+  <si>
+    <t>24/12/2018</t>
+  </si>
+  <si>
+    <t>25/12/2018</t>
+  </si>
+  <si>
+    <t>26/12/2018</t>
+  </si>
+  <si>
+    <t>30/12/2018</t>
+  </si>
+  <si>
+    <t>28/12/2018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Completed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Integration : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Completed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Integration : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Completd</t>
+    </r>
+  </si>
+  <si>
+    <t>19/12/2018 : API integration is completed.Test case: nageshwararao1996@gmail.com , password:123456</t>
+  </si>
+  <si>
+    <t>24/12/208</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -833,26 +957,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Integration : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>In Progress</t>
-    </r>
-  </si>
-  <si>
-    <t>19/12/2018 : API integration is completed but finding issue with phone field. Kindly have  a look.</t>
-  </si>
-  <si>
-    <t>19/12/2018 : API integration is completed.Test case: admin@kaizenat.com , password:123456</t>
-  </si>
-  <si>
-    <t>19/12/2018: API integration is completed. Test case: user@kaizenat.com , password:123456</t>
+      <t>Integration : In progress</t>
+    </r>
+  </si>
+  <si>
+    <t>UI  : Completed
+Integration : Completed</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1045,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -944,29 +1054,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -974,8 +1073,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -985,36 +1100,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1341,630 +1451,787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="8" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" style="8" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="33.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="33.54296875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="50.453125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="33.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="50.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="37.5" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="37.5" customHeight="1">
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="18">
+        <v>43456</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="18">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="18">
+        <v>43457</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="16">
+        <v>43468</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="16">
+        <v>43468</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="16">
+        <v>43468</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="246.5">
+      <c r="B13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="16">
+        <v>43468</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="38.5">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="18">
+        <v>43457</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="63.5">
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="18">
+        <v>43457</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="56.5">
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="18">
+        <v>43457</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="38.5">
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="18">
+        <v>43457</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1" ht="38.5">
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="18">
+        <v>43457</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="16">
+        <v>43469</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="16">
+        <v>43473</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="16">
+        <v>43473</v>
+      </c>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="16">
+        <v>43475</v>
+      </c>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="16">
+        <v>43473</v>
+      </c>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="246.5">
+      <c r="B24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="16">
+        <v>43473</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="16">
+        <v>43463</v>
+      </c>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="18">
+        <v>43459</v>
+      </c>
+      <c r="H26" s="16">
+        <v>43462</v>
+      </c>
+      <c r="I26" s="18">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="6" customFormat="1" ht="43.5" customHeight="1">
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="6" customFormat="1" ht="43.5" customHeight="1">
+      <c r="B29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" ht="39" customHeight="1">
+      <c r="B30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="6" customFormat="1" ht="39.75" customHeight="1">
+      <c r="B31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="6" customFormat="1" ht="26.5">
+      <c r="B32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="F32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="2:10" s="6" customFormat="1" ht="26.5">
+      <c r="B33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="71" thickBot="1">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G33" s="10"/>
+      <c r="H33" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="2:10" s="6" customFormat="1" ht="26.5">
+      <c r="B34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57" thickBot="1">
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="71" thickBot="1">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" thickBot="1">
-      <c r="B6" s="1" t="s">
+      <c r="G34" s="10"/>
+      <c r="H34" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="2:10" s="6" customFormat="1" ht="246.5">
+      <c r="B35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" thickBot="1">
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" thickBot="1">
-      <c r="B8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" thickBot="1">
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" thickBot="1">
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" thickBot="1">
-      <c r="B11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" thickBot="1">
-      <c r="B12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" thickBot="1">
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="247" thickBot="1">
-      <c r="B14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="39" thickBot="1">
-      <c r="A15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="64" thickBot="1">
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="57" thickBot="1">
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="39" thickBot="1">
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="39" thickBot="1">
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="27" thickBot="1">
-      <c r="B20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="27" thickBot="1">
-      <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="27" thickBot="1">
-      <c r="B22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="27" thickBot="1">
-      <c r="B23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="27" thickBot="1">
-      <c r="B24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="247" thickBot="1">
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43" thickBot="1">
-      <c r="A26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="51.5" thickBot="1">
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="57" thickBot="1">
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="51.5" thickBot="1">
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="51.5" thickBot="1">
-      <c r="B30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="64" thickBot="1">
-      <c r="B31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="27" thickBot="1">
-      <c r="B32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="F32" s="13" t="s">
+    </row>
+    <row r="36" spans="2:10" s="6" customFormat="1" ht="26.5">
+      <c r="B36" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="27" thickBot="1">
-      <c r="B33" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="27" thickBot="1">
-      <c r="B34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="246.5">
-      <c r="B35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>92</v>
+      <c r="C36" s="11"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="18">
+        <v>43460</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="18">
+        <v>43460</v>
       </c>
     </row>
   </sheetData>
@@ -1973,20 +2240,19 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C15" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C19" r:id="rId7"/>
-    <hyperlink ref="C26" r:id="rId8"/>
-    <hyperlink ref="C27" r:id="rId9"/>
-    <hyperlink ref="C28" r:id="rId10"/>
-    <hyperlink ref="C29" r:id="rId11"/>
-    <hyperlink ref="C30" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C31" r:id="rId15"/>
+    <hyperlink ref="C14" r:id="rId5"/>
+    <hyperlink ref="C17" r:id="rId6"/>
+    <hyperlink ref="C18" r:id="rId7"/>
+    <hyperlink ref="C27" r:id="rId8"/>
+    <hyperlink ref="C28" r:id="rId9"/>
+    <hyperlink ref="C29" r:id="rId10"/>
+    <hyperlink ref="C30" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C31" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId16"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -2008,7 +2274,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2020,48 +2286,48 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2084,41 +2350,41 @@
     <col min="6" max="6" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1">
-      <c r="A1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>54</v>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2143,35 +2409,35 @@
     <col min="6" max="6" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>66</v>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2191,7 +2457,7 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/assets/wankey_UI_Task_list_detail.xlsx
+++ b/assets/wankey_UI_Task_list_detail.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login and register" sheetId="1" r:id="rId1"/>
-    <sheet name="product" sheetId="3" r:id="rId2"/>
-    <sheet name="report" sheetId="5" r:id="rId3"/>
+    <sheet name="API lists" sheetId="6" r:id="rId2"/>
+    <sheet name="product" sheetId="3" r:id="rId3"/>
     <sheet name="clarification" sheetId="2" r:id="rId4"/>
     <sheet name="screenshot" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="243">
   <si>
     <t>Module</t>
   </si>
@@ -226,12 +226,6 @@
   </si>
   <si>
     <t>Provide api for attached image. Refer screenshot-1</t>
-  </si>
-  <si>
-    <t>URLs</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -963,13 +957,417 @@
   <si>
     <t>UI  : Completed
 Integration : Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user transfer </t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/usertransfer</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Transfer request has been sent. User will remain in Existing department until transferred.\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> todepartment, useremail,fromdepartment,username</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User</t>
+  </si>
+  <si>
+    <t>Register page</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/user/register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"status_response": "{\"message\":\"The phone has already been taken.\",\"Success\":0}", "status_response": "{\"success\":1,\"message\":\"OTP successfully sent.\"}", </t>
+  </si>
+  <si>
+    <t>name, email, department, password, password_confirmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"status_response": "{\"success\":1,\"data\":\"Account Successfully Activated, Please Login again\"}", </t>
+  </si>
+  <si>
+    <t>"status_response": "{\"success\":1,\"message\":\"Successfully logging in.\"}",  "status_response": "{\"success\":0,\"message\":\"The password field is required.\"}", "status_response": "{\"success\":0,\"message\":\"The email field is required.\"}"</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/user/password/email</t>
+  </si>
+  <si>
+    <t>"status_respond": "{\"success\":0,\"message\":\"The email field is required.\"}", "status_respond": "{\"success\":1,\"message\":\"OTP successfully sent\"}"</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"The otp field is required.\",\"Success\":0}", "status_response": "{\"success\":0,\"message\":\"Invalid OTP, Please enter correct OTP\"}",  "status_response": "{\"success\":1,\"message\":\"Success, Please reset your password\"}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"status_respond": "{\"success\":1,\"message\":\"Successfully logging in.\"}", </t>
+  </si>
+  <si>
+    <t>profile_existing_data</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/user/profile_existing_data?id=4</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Successfully retrieved\",\"Success\":1,\"data\":[{\"id\":4,\"email\":\"android@Kaizenat.com\"}]}"</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile update </t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/user/profile</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Profile successfully updated\",\"Success\":0}"</t>
+  </si>
+  <si>
+    <t>email, ncpassword, npassword, id</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "status_respond": "{\"message\":\"The email field is required.\",\"Success\":0}",  "status_respond": "{\"message\":\"The password field is required.\",\"Success\":0}"},  "status_respond": "{\"success\":0,\"message\":\"Username or Password is incorrect\"}",  "status_respond": "{\"success\":1,\"message\":\"Successfully logged in.\"}"</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/password/email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"status_response": "{\"message\":\"The email field is required.\",\"Success\":0}" , "status_response": "{\"message\":\"The selected email is invalid.\",\"Success\":0}",  "status_respond": "{\"success\":1,\"message\":\"OTP successfully sent\"}", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"status_response": "{\"message\":\"The otp field is required.\",\"Success\":0}",  "status_response": "{\"success\":0,\"message\":\"Invalid OTP, please enter correct otp\"}",  "status_response": "{\"success\":1,\"message\":\"Please reset your new password\"}", </t>
+  </si>
+  <si>
+    <t>"status_response": "{\"data\":\"The email field is required.\",\"Success\":0}", "status_response": "{\"data\":\"The password field is required.\",\"Success\":0}", "status_response": "{\"data\":\"The password confirmation does not match.\",\"Success\":0}",  "status_response": "{\"message\":\"Login successfull, taking to dashboard\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t>SMTP existing data</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/smtp_existing_details</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"success\":1,\"message\":\"Successfully retrived\",\"data\":{\"mail_driver\":\"smtp\",\"host\":\"smtp.office365.com\",\"port\":\"587\",\"email\":\"android@kaizenat.com\",\"password\":\"Sreedinu@123\",\"encryption_type\":\"tls\"}}"</t>
+  </si>
+  <si>
+    <t>Note: select port in dropdown(25,465,587), encryption type(ssl, tls,not secure)</t>
+  </si>
+  <si>
+    <t>updating form</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/smtp_update</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"success\":0,\"message\":\"The mail driver field is required.\"}", "status_response": "{\"success\":1,\"message\":\"SMTP details successfully updated\"}"</t>
+  </si>
+  <si>
+    <t>mail_driver, host, port, email, password, encryption_type</t>
+  </si>
+  <si>
+    <t>Email Testing whether working or not</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/test_mail</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"success\":0,\"message\":\"The email field is required.\"}", "status_response": "{\"success\":\"0\",\"message\":\"Test mail failed \"}", "status_response": "{\"success\":\"1\",\"message\":\"Mail successfully sent \"}"</t>
+  </si>
+  <si>
+    <t>Cost calculations APIS</t>
+  </si>
+  <si>
+    <t>inserting purchase details form</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/cost_calculation</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"The software name field is required.\",\"Success\":0}",  "status_response": "{\"message\":\"Successfully added\",\"Success\":1}", "status_response": "{\"message\":\"Please add the DYNA purchase cost first.\",\"Success\":0}"</t>
+  </si>
+  <si>
+    <t>software_name, year_of_purchase, license_type, lease_months(when they select lease license only), licenses_purchased, purchase_cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> listing purchase details</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/purchase_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "success": 1,
+    "data": [
+        {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delete purchase</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/delete_purchase?id=402</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"The purchase id field is required.\",\"Success\":0}", "status_response": "{\"message\":\"The selected id is invalid.\",\"Success\":0}",http://kaizenat.com/LUPA/admin/delete_purchase</t>
+  </si>
+  <si>
+    <t>Settings page Apis</t>
+  </si>
+  <si>
+    <t>Total departments List</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/totaldepartments_list</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Successfully retrieved\",\"Success\":1,\"data\":[{\"id\":5,\"department_name\":\"CRASH\"},{\"id\":6,\"department_name\":\"NVHH\"}]}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Licenses list used &amp; remaining </t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/total_license</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Successfully retrieved\",\"success\":1,\"data\":[{\"product_name\":\"LSDYNA\",\"total_license\":10,\"license_remaining\":5},{\"product_name\":\"MSC\",\"total_license\":20,\"license_remaining\":10},{\"product_name\":\"ALTAIR\",\"total_license\":30,\"license_remaining\":15},{\"product_name\":\"BETA CAE\",\"total_license\":40,\"license_remaining\":20}]}"</t>
+  </si>
+  <si>
+    <t>adding department</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/deptAdd</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"The department field is required.\",\"Success\":0}", "status_response": "{\"message\":\"Department addedd successfully\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delete department</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/deptDestroy?id=5</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Department successfully deleted.\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t>department managers list</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/departmentmangers_list</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Successfully ,"status_response": "{\"message\":\"No data Found\",\"Success\":0,\"data\":[]}",retrieved\",\"Success\":1,\"data\":[{\"id\":1,\"name\":\"Nagesh\",\"email\":\"departmentmanagers@kaizenat.com\",\"department\":\"CRASH\",\"verified\":1,\"admin_approved\":0},{\"id\":6,\"name\":\"department managers\",\"email\":\"android@kaizenat.com\",\"department\":\"NVHH\",\"verified\":1,\"admin_approved\":1}]}"</t>
+  </si>
+  <si>
+    <t>approving department manager</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/deptmanagerctivate?id=1</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Department manager activated\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t>block department manager</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/deptmanagerdeactivate?id=1</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Department manager deactivated successfully\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delete department manager</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/deptmanagerdelete?id=4</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"The selected id is invalid.\",\"Success\":0}", "status_response": "{\"message\":\"Department manager successfully deleted.\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t>Users List</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/users_list</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Successfully retrieved\",\"Success\":1,\"data\":[{\"id\":4,\"name\":\"Nagesh\",\"email\":\"android@Kaizenat.com\",\"department\":\"CRASH\"},{\"id\":5,\"name\":\"User2\",\"email\":\"user2@kaizenat.com\",\"department\":\"CRASH\"},{\"id\":6,\"name\":\"user3\",\"email\":\"user3@kaizenat.com\",\"department\":\"NVHH\"}]}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> block user</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/userblock?id=3</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"The selected id is invalid.\",\"Success\":0}","status_response": "{\"message\":\"User successfully blocked\",\"Success\":0}"</t>
+  </si>
+  <si>
+    <t>unblock user</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/userunblock?id=3</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"The selected id is invalid.\",\"Success\":0}", "status_response": "{\"message\":\"User successfully Activated\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t>delete user</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/userdelete?id=3</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"User successfully deleted.\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> transfer user</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/usertransfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "status_response": "{\"message\":\"Transfer request has been sent. User will remain in Existing department until transferred.\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> departments list (for user transfer purpose, only these should be displayed for when tried to select the user)</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/departments_list</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Successfully retrieved\",\"data\":[{\"department\":\"CRASH\"},{\"department\":\"NVHH\"}],\"Success\":1}"</t>
+  </si>
+  <si>
+    <t>profile setting APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> profile existing data </t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/profile_existing_data</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Successfully retrieved\",\"Success\":1,\"data\":[{\"id\":1,\"name\":\"nag\",\"email\":\"admin@kaizenat.com\"}]}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> profile update</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/profileupdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "status_response": "{\"message\":\"Profile successfully updated\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t>name, email, password, password_confirmation, id</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"The name field is required.\",\"Success\":0}",  "status_response": "{\"message\":\"The department field is required.\",\"Success\":0}",  "status_response": "{\"message\":\"The phone has already been taken.\",\"Success\":0}",  "status_response": "{\"success\":1,\"message\":\"OTP successfully sent.\"}"</t>
+  </si>
+  <si>
+    <t>name,email,department, password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"status_response": "{\"message\":\"The otp field is required.\",\"Success\":0}",  "status_response": "{\"success\":0,\"message\":\"Invalid OTP, Please enter correct OTP\"}", "status_response": "{\"success\":1,\"message\":\"Account Successfully Activated, and pending for admin approval\"}",  </t>
+  </si>
+  <si>
+    <t>"status_response": "{\"success\":0,\"message\":\"The email field is required.\"}", "status_response": "{\"success\":0,\"message\":\"The password field is required.\"}", "status_response": "{\"success\":0,\"message\":\"Account Either password is incorrect or  not activated or not approved by Admin\"}", "status_response": "{\"success\":1,\"message\":\"Successfully loggin in. taking to dashboard\"}"</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/password/email</t>
+  </si>
+  <si>
+    <t>"status_respond": "{\"success\":0,\"message\":\"The selected email is invalid.\"}", "status_respond": "{\"success\":1,\"message\":\"OTP successfully sent\"}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"status_response": "{\"message\":\"The otp field is required.\",\"Success\":0}", "status_response": "{\"success\":1,\"message\":\"Success, Please reset your password\"}", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"status_response": "{\"success\":0,\"message\":\"The email field is required.\"}", "status_response": "{\"success\":1,\"message\":\"Successfully logging in. taking to dashboard\"}", </t>
+  </si>
+  <si>
+    <t>profile existing data</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/profile_existing_data?id=6</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Successfully retrieved sd\",\"Success\":1,\"data\":{\"1\":{\"id\":6,\"email\":\"android@kaizenat.com\",\"name\":\"department managers\"}}}"</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/profile</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Profile successfully updated\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t>id, name, email, password, cpassword</t>
+  </si>
+  <si>
+    <t>Users List under his department</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/users_list?department=CRASH</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"Successfully retrieved\",\"Success\":1,\"data\":[{\"id\":4,\"name\":\"Nagesh\",\"email\":\"android@Kaizenat.com\",\"department\":\"CRASH\",\"verified\":0},{\"id\":5,\"name\":\"User2\",\"email\":\"user2@kaizenat.com\",\"department\":\"CRASH\",\"verified\":1}]}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block user </t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/userblock?id=1</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"User successfully blocked.\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t>un block user</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/userunblock?id=1</t>
+  </si>
+  <si>
+    <t>"status_response": "{\"message\":\"User successfully Activated\",\"Success\":0}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete user </t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/delete_user?id=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "status_response": "{\"message\":\"User successfully deleted.\",\"Success\":1}"</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Not Yet started</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,8 +1422,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,6 +1445,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,7 +1489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1125,6 +1541,42 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1453,7 +1905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1473,7 +1925,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1488,19 +1940,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
@@ -1520,19 +1972,19 @@
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1">
@@ -1549,16 +2001,16 @@
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="I3" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="37.5" customHeight="1">
@@ -1575,16 +2027,16 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="37.5" customHeight="1">
@@ -1601,33 +2053,33 @@
         <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="26.5">
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G6" s="18">
         <v>43456</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I6" s="18">
         <v>43457</v>
@@ -1635,37 +2087,37 @@
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="26.5">
       <c r="B7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G7" s="18">
         <v>43457</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="26.5">
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -1677,11 +2129,11 @@
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I9" s="10"/>
     </row>
@@ -1693,7 +2145,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="16">
@@ -1703,13 +2155,13 @@
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" ht="26.5">
       <c r="B11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="16">
@@ -1719,13 +2171,13 @@
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="26.5">
       <c r="B12" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="16">
@@ -1735,13 +2187,13 @@
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1" ht="246.5">
       <c r="B13" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="16">
@@ -1749,7 +2201,7 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="38.5">
@@ -1769,16 +2221,16 @@
         <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G14" s="18">
         <v>43457</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="63.5">
@@ -1795,16 +2247,16 @@
         <v>15</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G15" s="18">
         <v>43457</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" ht="56.5">
@@ -1821,16 +2273,16 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G16" s="18">
         <v>43457</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="6" customFormat="1" ht="38.5">
@@ -1847,16 +2299,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G17" s="18">
         <v>43457</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="6" customFormat="1" ht="38.5">
@@ -1873,27 +2325,27 @@
         <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G18" s="18">
         <v>43457</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="6" customFormat="1" ht="26.5">
       <c r="B19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="16">
@@ -1909,7 +2361,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="16">
@@ -1919,13 +2371,13 @@
     </row>
     <row r="21" spans="1:10" s="6" customFormat="1" ht="26.5">
       <c r="B21" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="16">
@@ -1935,13 +2387,13 @@
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="26.5">
       <c r="B22" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="16">
@@ -1951,13 +2403,13 @@
     </row>
     <row r="23" spans="1:10" s="6" customFormat="1" ht="26.5">
       <c r="B23" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="16">
@@ -1967,13 +2419,13 @@
     </row>
     <row r="24" spans="1:10" s="6" customFormat="1" ht="246.5">
       <c r="B24" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="16">
@@ -1981,18 +2433,18 @@
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="6" customFormat="1" ht="26.5">
       <c r="B25" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="9"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="16">
@@ -2002,13 +2454,13 @@
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1" ht="26.5">
       <c r="B26" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="9"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G26" s="18">
         <v>43459</v>
@@ -2037,16 +2489,16 @@
         <v>15</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="6" customFormat="1" ht="43.5" customHeight="1">
@@ -2063,19 +2515,19 @@
         <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="6" customFormat="1" ht="43.5" customHeight="1">
@@ -2092,16 +2544,16 @@
         <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="6" customFormat="1" ht="39" customHeight="1">
@@ -2118,16 +2570,16 @@
         <v>15</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="6" customFormat="1" ht="39.75" customHeight="1">
@@ -2144,16 +2596,16 @@
         <v>18</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1" ht="26.5">
@@ -2162,73 +2614,73 @@
       </c>
       <c r="C32" s="8"/>
       <c r="F32" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="2:10" s="6" customFormat="1" ht="26.5">
       <c r="B33" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="2:10" s="6" customFormat="1" ht="26.5">
       <c r="B34" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="2:10" s="6" customFormat="1" ht="246.5">
       <c r="B35" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="2:10" s="6" customFormat="1" ht="26.5">
       <c r="B36" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="9"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G36" s="18">
         <v>43460</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I36" s="18">
         <v>43460</v>
@@ -2258,6 +2710,1049 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="52.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="19" customFormat="1" ht="29">
+      <c r="A1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="20" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" s="20" customFormat="1" ht="70.5">
+      <c r="A3" s="25"/>
+      <c r="B3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" s="20" customFormat="1" ht="84.5">
+      <c r="A4" s="25"/>
+      <c r="B4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" s="20" customFormat="1" ht="112.5">
+      <c r="A5" s="25"/>
+      <c r="B5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" s="19" customFormat="1" ht="138.5">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="19" customFormat="1" ht="56.5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" s="19" customFormat="1" ht="70.5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" s="19" customFormat="1" ht="26">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" s="19" customFormat="1" ht="101">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" s="19" customFormat="1" ht="38.5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" s="19" customFormat="1" ht="70.5">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" s="20" customFormat="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" s="20" customFormat="1" ht="56.5">
+      <c r="A14" s="25"/>
+      <c r="B14" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" s="20" customFormat="1" ht="98.5">
+      <c r="A15" s="25"/>
+      <c r="B15" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" s="20" customFormat="1" ht="51">
+      <c r="A16" s="25"/>
+      <c r="B16" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="29">
+      <c r="A17" s="25"/>
+      <c r="B17" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1" ht="101">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" s="20" customFormat="1" ht="29">
+      <c r="A19" s="25"/>
+      <c r="B19" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="29">
+      <c r="A20" s="25"/>
+      <c r="B20" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="56.5">
+      <c r="A21" s="25"/>
+      <c r="B21" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" s="20" customFormat="1" ht="98.5">
+      <c r="A22" s="25"/>
+      <c r="B22" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" s="20" customFormat="1" ht="38.5">
+      <c r="A23" s="25"/>
+      <c r="B23" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" s="20" customFormat="1" ht="38.5">
+      <c r="A24" s="25"/>
+      <c r="B24" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" s="20" customFormat="1" ht="29">
+      <c r="A25" s="25"/>
+      <c r="B25" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" s="20" customFormat="1" ht="43.5">
+      <c r="A26" s="25"/>
+      <c r="B26" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="20" customFormat="1" ht="76">
+      <c r="A27" s="25"/>
+      <c r="B27" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" s="20" customFormat="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" s="20" customFormat="1" ht="43.5">
+      <c r="A29" s="25"/>
+      <c r="B29" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" s="20" customFormat="1" ht="38.5">
+      <c r="A30" s="25"/>
+      <c r="B30" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="19" customFormat="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" s="20" customFormat="1" ht="88.5">
+      <c r="A32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" s="20" customFormat="1" ht="76">
+      <c r="A33" s="25"/>
+      <c r="B33" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" s="20" customFormat="1" ht="126.5">
+      <c r="A34" s="25"/>
+      <c r="B34" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" s="20" customFormat="1" ht="42.5">
+      <c r="A35" s="25"/>
+      <c r="B35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" s="20" customFormat="1" ht="51">
+      <c r="A36" s="25"/>
+      <c r="B36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" s="20" customFormat="1" ht="51">
+      <c r="A37" s="25"/>
+      <c r="B37" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" s="20" customFormat="1" ht="43.5">
+      <c r="A38" s="25"/>
+      <c r="B38" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:7" s="20" customFormat="1" ht="29">
+      <c r="A39" s="25"/>
+      <c r="B39" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" s="30" customFormat="1" ht="87">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="1:7" s="30" customFormat="1" ht="29">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="1:7" s="30" customFormat="1">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" spans="1:7" s="30" customFormat="1" ht="29">
+      <c r="A43" s="27"/>
+      <c r="B43" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" s="30" customFormat="1">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" s="30" customFormat="1" ht="29">
+      <c r="A45" s="27"/>
+      <c r="B45" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="30" customFormat="1">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+    </row>
+    <row r="47" spans="1:7" s="30" customFormat="1" ht="43.5">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="20" customFormat="1" ht="42.5">
+      <c r="A48" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="20" customFormat="1" ht="29">
+      <c r="A49" s="25"/>
+      <c r="B49" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="20" customFormat="1" ht="70.5">
+      <c r="A50" s="25"/>
+      <c r="B50" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="20" customFormat="1" ht="38.5">
+      <c r="A51" s="25"/>
+      <c r="B51" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="20" customFormat="1" ht="76">
+      <c r="A52" s="25"/>
+      <c r="B52" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="20" customFormat="1" ht="29">
+      <c r="A53" s="25"/>
+      <c r="B53" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="20" customFormat="1" ht="43.5">
+      <c r="A54" s="25"/>
+      <c r="B54" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="20" customFormat="1" ht="29">
+      <c r="A55" s="25"/>
+      <c r="B55" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="31"/>
+      <c r="B60" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="32"/>
+      <c r="B61" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C36" r:id="rId6"/>
+    <hyperlink ref="C37" r:id="rId7"/>
+    <hyperlink ref="C48" r:id="rId8"/>
+    <hyperlink ref="C49" r:id="rId9"/>
+    <hyperlink ref="C50" r:id="rId10"/>
+    <hyperlink ref="C51" r:id="rId11"/>
+    <hyperlink ref="C34" r:id="rId12"/>
+    <hyperlink ref="C33" r:id="rId13"/>
+    <hyperlink ref="C53" r:id="rId14"/>
+    <hyperlink ref="C35" r:id="rId15"/>
+    <hyperlink ref="C7" r:id="rId16"/>
+    <hyperlink ref="C8" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="C16" r:id="rId19"/>
+    <hyperlink ref="C17" r:id="rId20"/>
+    <hyperlink ref="C19" r:id="rId21"/>
+    <hyperlink ref="C20" r:id="rId22"/>
+    <hyperlink ref="C21" r:id="rId23"/>
+    <hyperlink ref="C23" r:id="rId24"/>
+    <hyperlink ref="C24" r:id="rId25"/>
+    <hyperlink ref="C12" r:id="rId26"/>
+    <hyperlink ref="C11" r:id="rId27"/>
+    <hyperlink ref="C25" r:id="rId28"/>
+    <hyperlink ref="C26" r:id="rId29"/>
+    <hyperlink ref="C27" r:id="rId30"/>
+    <hyperlink ref="C30" r:id="rId31"/>
+    <hyperlink ref="C22" r:id="rId32"/>
+    <hyperlink ref="C18" r:id="rId33"/>
+    <hyperlink ref="C14" r:id="rId34"/>
+    <hyperlink ref="C6" r:id="rId35"/>
+    <hyperlink ref="C29" r:id="rId36"/>
+    <hyperlink ref="C55" r:id="rId37"/>
+    <hyperlink ref="C54" r:id="rId38"/>
+    <hyperlink ref="C39" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="C43" r:id="rId41"/>
+    <hyperlink ref="C45" r:id="rId42"/>
+    <hyperlink ref="C47" r:id="rId43"/>
+    <hyperlink ref="C38" r:id="rId44"/>
+    <hyperlink ref="C40" r:id="rId45"/>
+    <hyperlink ref="C15" r:id="rId46"/>
+    <hyperlink ref="C52" r:id="rId47"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2328,63 +3823,6 @@
     <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="29">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +3887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/assets/wankey_UI_Task_list_detail.xlsx
+++ b/assets/wankey_UI_Task_list_detail.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Narayana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26458\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465"/>
   </bookViews>
   <sheets>
-    <sheet name="login and register" sheetId="1" r:id="rId1"/>
+    <sheet name="login and register &amp; dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="API lists" sheetId="6" r:id="rId2"/>
     <sheet name="product" sheetId="3" r:id="rId3"/>
     <sheet name="clarification" sheetId="2" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="286">
   <si>
     <t>Module</t>
   </si>
@@ -235,6 +235,24 @@
   </si>
   <si>
     <t>Task list</t>
+  </si>
+  <si>
+    <t>Faourite</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Cost calculator</t>
+  </si>
+  <si>
+    <t>Dyna compares</t>
+  </si>
+  <si>
+    <t>Notification</t>
   </si>
   <si>
     <r>
@@ -284,23 +302,50 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Integration : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>In Progress</t>
-    </r>
-  </si>
-  <si>
-    <t>Faourite</t>
-  </si>
-  <si>
-    <t>Product wise Dashboard</t>
+      <t>Integration : Completed</t>
+    </r>
+  </si>
+  <si>
+    <t>19/12/2018: API integration is completed. Test case: user@kaizenat.com , password:123456</t>
+  </si>
+  <si>
+    <t>Task End Date</t>
+  </si>
+  <si>
+    <t>Task Start Date</t>
+  </si>
+  <si>
+    <t>17/12/2018</t>
+  </si>
+  <si>
+    <t>19/12/2018</t>
+  </si>
+  <si>
+    <t>Targeted End Date</t>
+  </si>
+  <si>
+    <t>22/12/2018</t>
+  </si>
+  <si>
+    <t>21/12/2018</t>
+  </si>
+  <si>
+    <t>18/12/2018</t>
+  </si>
+  <si>
+    <t>23/12/2018</t>
+  </si>
+  <si>
+    <t>24/12/2018</t>
+  </si>
+  <si>
+    <t>25/12/2018</t>
+  </si>
+  <si>
+    <t>26/12/2018</t>
+  </si>
+  <si>
+    <t>28/12/2018</t>
   </si>
   <si>
     <r>
@@ -339,7 +384,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> In progress
+      <t xml:space="preserve"> Completed
 </t>
     </r>
     <r>
@@ -359,22 +404,10 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Yet to start</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UI  : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>In progress</t>
-    </r>
+      <t>Completed</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -383,8 +416,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-Integration : </t>
+      <t xml:space="preserve">UI </t>
     </r>
     <r>
       <rPr>
@@ -393,183 +425,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Yet to start</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UI  : In progress
-Integration : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yet to start</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Yearly
-UI :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in progreess
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Integration : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pending
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Monthly : 
-UI : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Yet to start
-Integration : Yet to start
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Weekly :
-UI : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">yet to start
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : yet to start
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Last 5 minutes :
-UI : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">yet to start
-Integration : yet to start
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Favourites</t>
-  </si>
-  <si>
-    <t>Report license dashboard</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Cost calculator</t>
-  </si>
-  <si>
-    <t>Dyna compares</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -578,7 +435,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">UI </t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -587,7 +444,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> Completed
+</t>
     </r>
     <r>
       <rPr>
@@ -597,7 +455,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>:</t>
+      <t xml:space="preserve">Integration : </t>
     </r>
     <r>
       <rPr>
@@ -606,294 +464,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Yet to start
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Integration : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yet to start</t>
-    </r>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">19/12/2018 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Weekly and last 5 minutes design section is missing in pdf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>19/12/2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :Weekly and last 5 minutes design section is missing in pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>19/12/2018 :Weekly and last 5 minutes design section is missing in pdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Completed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Integration : Completed</t>
-    </r>
-  </si>
-  <si>
-    <t>19/12/2018: API integration is completed. Test case: user@kaizenat.com , password:123456</t>
-  </si>
-  <si>
-    <t>Task End Date</t>
-  </si>
-  <si>
-    <t>Task Start Date</t>
-  </si>
-  <si>
-    <t>17/12/2018</t>
-  </si>
-  <si>
-    <t>19/12/2018</t>
-  </si>
-  <si>
-    <t>Targeted End Date</t>
-  </si>
-  <si>
-    <t>22/12/2018</t>
-  </si>
-  <si>
-    <t>21/12/2018</t>
-  </si>
-  <si>
-    <t>18/12/2018</t>
-  </si>
-  <si>
-    <t>23/12/2018</t>
-  </si>
-  <si>
-    <t>24/12/2018</t>
-  </si>
-  <si>
-    <t>25/12/2018</t>
-  </si>
-  <si>
-    <t>26/12/2018</t>
-  </si>
-  <si>
-    <t>30/12/2018</t>
-  </si>
-  <si>
-    <t>28/12/2018</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Completed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Integration : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Completed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Completed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Integration : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Completd</t>
     </r>
   </si>
@@ -902,57 +472,6 @@
   </si>
   <si>
     <t>24/12/208</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> In progress
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Integration : In progress</t>
-    </r>
   </si>
   <si>
     <t>UI  : Completed
@@ -1363,11 +882,13 @@
     <t>Not Yet started</t>
   </si>
   <si>
+    <t>29/12/2018: The requirement is not clear and the APIs are pending. 04/01/2019: completed</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1376,7 +897,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1386,7 +906,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1395,42 +914,818 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Yet to start
+      <t xml:space="preserve"> Completed
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Integration : </t>
+      <t>Integration : Completed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UI  : </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Yet to start</t>
-    </r>
-  </si>
-  <si>
-    <t>29/12/2018: The requirement is not clear and the APIs are pending.</t>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Integration : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yearly
+UI :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Monthly : 
+UI : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Yet to start
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Yet to start
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Weekly :
+UI :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This Week :
+UI : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>12/01/2019 :  Monthly report API and UI issues pending</t>
+  </si>
+  <si>
+    <t>Report license/time count dashboard</t>
+  </si>
+  <si>
+    <t>Add To Faourite</t>
+  </si>
+  <si>
+    <t>12/01/2019 : API changes is pending . Report type should be added in API response</t>
+  </si>
+  <si>
+    <t>12/01/2019 : 
+UI and integration is almost completed. Only 20% of work is pending</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Real time Utilization
+UI :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recent Reports : 
+UI : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Last 5 minutes data :
+UI :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Todays data :
+UI : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:Completed
+Saturation Chart: 
+UI : Pending
+Integration : Pending
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Report Filters</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Pending
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Pending</t>
+    </r>
+  </si>
+  <si>
+    <t>Admin Notification</t>
+  </si>
+  <si>
+    <t>14/01/2019</t>
+  </si>
+  <si>
+    <t>13/1/2019</t>
+  </si>
+  <si>
+    <t>Yearly Report</t>
+  </si>
+  <si>
+    <t>username, product_name, type, chart_type</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/user/yearly_licenses_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Weekly Report</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/user/weekly_licenses_used</t>
+  </si>
+  <si>
+    <t>This week report</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/user/this_week_licenses_used</t>
+  </si>
+  <si>
+    <t>add favourites</t>
+  </si>
+  <si>
+    <t>get favourites</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/add_favorites</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/get_favourites</t>
+  </si>
+  <si>
+    <t>user_id, role(user (or) departmentmanager (or) admin), api, product_name, statistics_type(license_statistics, time_statistics), report_type, chart_type, favorite</t>
+  </si>
+  <si>
+    <t>user_id, role</t>
+  </si>
+  <si>
+    <t>Recent reports</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/get_recent_reports</t>
+  </si>
+  <si>
+    <t>role(user (or) departmentmanager (or) admin), user_id</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/yearly_licenses_used</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/weekly_licenses_used</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/this_week_licenses_used</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/yearly_licenses_used</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/weekly_licenses_used</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/this_week_licenses_used</t>
+  </si>
+  <si>
+    <t>user accept</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>user reject</t>
+  </si>
+  <si>
+    <t>notificationid</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/notifications</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/useraccept</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/userreject</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/notification_OK</t>
+  </si>
+  <si>
+    <t>id (id of the department manager)</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/notifications</t>
+  </si>
+  <si>
+    <t>notifications</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/notification_ok</t>
+  </si>
+  <si>
+    <t>distinct years for filter purpose</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/years_filter_list</t>
+  </si>
+  <si>
+    <t>yearly Report department filter</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/yearly_licenses_used_year</t>
+  </si>
+  <si>
+    <t>yearly Report user filter</t>
+  </si>
+  <si>
+    <t>username, product_name, type, chart_type, filter_year</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,34 +1787,25 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1563,7 +1849,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1586,12 +1872,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1678,23 +1990,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2025,24 +2345,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="33.81640625" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="33.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="50.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="50.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1">
@@ -2065,13 +2385,13 @@
         <v>68</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>66</v>
@@ -2094,19 +2414,19 @@
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1">
@@ -2123,16 +2443,16 @@
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="37.5" customHeight="1">
@@ -2149,16 +2469,16 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="37.5" customHeight="1">
@@ -2175,79 +2495,79 @@
         <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="26.5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B6" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G6" s="16">
         <v>43456</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I6" s="16">
         <v>43457</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="26.5">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B7" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G7" s="16">
         <v>43457</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="26.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B8" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G8" s="16">
         <v>43460</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I8" s="16">
         <v>43460</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="26.5">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B9" s="7" t="s">
         <v>59</v>
       </c>
@@ -2255,571 +2575,685 @@
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G9" s="16">
         <v>43461</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I9" s="16">
         <v>43461</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="26.5">
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="330">
       <c r="B10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="15"/>
+      <c r="F10" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="16">
+        <v>43462</v>
+      </c>
       <c r="H10" s="16">
-        <v>43468</v>
+        <v>43473</v>
       </c>
       <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" ht="26.5">
-      <c r="B11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="15"/>
+      <c r="J10" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B11" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" s="16">
+        <v>43709</v>
+      </c>
       <c r="H11" s="16">
-        <v>43468</v>
+        <v>43770</v>
       </c>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="26.5">
-      <c r="B12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="15"/>
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="B12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="16">
+        <v>43709</v>
+      </c>
       <c r="H12" s="16">
-        <v>43468</v>
+        <v>43770</v>
       </c>
       <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="246.5">
+      <c r="J12" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="255">
       <c r="B13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="15"/>
+        <v>232</v>
+      </c>
+      <c r="G13" s="16">
+        <v>43466</v>
+      </c>
       <c r="H13" s="16">
-        <v>43468</v>
+        <v>43678</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="38.5">
-      <c r="A14" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="B14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="16">
+        <v>43800</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="B15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="16">
+        <v>43467</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="39">
+      <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="16">
-        <v>43457</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" ht="63.5">
-      <c r="B15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="16">
-        <v>43457</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" ht="56.5">
-      <c r="B16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G16" s="16">
         <v>43457</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="38.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="77.25">
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="G17" s="16">
         <v>43457</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" ht="38.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1" ht="57.75">
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="G18" s="16">
         <v>43457</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="32" customFormat="1" ht="29">
-      <c r="B19" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="39">
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="16">
+        <v>43457</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="39">
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="16">
+        <v>43457</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="32" customFormat="1" ht="30">
+      <c r="B21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="35">
+        <v>43801</v>
+      </c>
+      <c r="H21" s="35">
         <v>43469</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="26.5">
-      <c r="B20" s="7" t="s">
+      <c r="I21" s="35">
+        <v>43469</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B22" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G22" s="16">
+        <v>43709</v>
+      </c>
+      <c r="H22" s="16">
+        <v>43770</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="B23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" s="16">
+        <v>43709</v>
+      </c>
+      <c r="H23" s="16">
+        <v>43770</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="330">
+      <c r="B24" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16">
-        <v>43473</v>
-      </c>
-      <c r="I20" s="37"/>
-    </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" ht="26.5">
-      <c r="B21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16">
-        <v>43473</v>
-      </c>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" ht="26.5">
-      <c r="B22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16">
-        <v>43475</v>
-      </c>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" ht="26.5">
-      <c r="B23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="16">
-        <v>43462</v>
-      </c>
-      <c r="H23" s="16">
-        <v>43473</v>
-      </c>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" ht="246.5">
-      <c r="B24" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="15"/>
+        <v>238</v>
+      </c>
+      <c r="G24" s="16">
+        <v>43462</v>
+      </c>
       <c r="H24" s="16">
         <v>43473</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="26.5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="255">
       <c r="B25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="16">
+        <v>43467</v>
+      </c>
+      <c r="H25" s="16">
+        <v>43473</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="B26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" s="16">
+        <v>43467</v>
+      </c>
+      <c r="H26" s="16">
+        <v>43473</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="16">
+        <v>43467</v>
+      </c>
+      <c r="H27" s="16">
+        <v>43463</v>
+      </c>
+      <c r="I27" s="16">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="16">
+        <v>43459</v>
+      </c>
+      <c r="H28" s="16">
+        <v>43462</v>
+      </c>
+      <c r="I28" s="16">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="A29" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" s="16">
+        <v>43800</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="B30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" s="16">
+        <v>43467</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="6" customFormat="1" ht="43.5" customHeight="1">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" s="6" customFormat="1" ht="43.5" customHeight="1">
+      <c r="B33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" s="6" customFormat="1" ht="39" customHeight="1">
+      <c r="B34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" s="6" customFormat="1" ht="39.75" customHeight="1">
+      <c r="B35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" s="6" customFormat="1" ht="330">
+      <c r="B36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="16">
+        <v>43462</v>
+      </c>
+      <c r="H36" s="16">
+        <v>43473</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B37" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="16">
+        <v>43709</v>
+      </c>
+      <c r="H37" s="16">
+        <v>43770</v>
+      </c>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="2:10" s="6" customFormat="1" ht="255">
+      <c r="B38" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="16">
+        <v>43467</v>
+      </c>
+      <c r="H38" s="16">
+        <v>43473</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" s="6" customFormat="1" ht="30">
+      <c r="B39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16">
-        <v>43463</v>
-      </c>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" ht="26.5">
-      <c r="B26" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="16">
-        <v>43459</v>
-      </c>
-      <c r="H26" s="16">
-        <v>43462</v>
-      </c>
-      <c r="I26" s="16">
+      <c r="F39" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="16">
+        <v>43709</v>
+      </c>
+      <c r="H39" s="16">
+        <v>43770</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" s="6" customFormat="1" ht="26.25">
+      <c r="B40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="16">
         <v>43460</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" ht="39" customHeight="1">
-      <c r="B30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" ht="26.5">
-      <c r="B32" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="F32" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="2:10" s="6" customFormat="1" ht="26.5">
-      <c r="B33" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="2:10" s="6" customFormat="1" ht="26.5">
-      <c r="B34" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="16">
-        <v>43462</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I34" s="15"/>
-    </row>
-    <row r="35" spans="2:10" s="6" customFormat="1" ht="246.5">
-      <c r="B35" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" s="6" customFormat="1" ht="26.5">
-      <c r="B36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" s="16">
-        <v>43460</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I36" s="16">
+      <c r="H40" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I40" s="16">
         <v>43460</v>
       </c>
     </row>
@@ -2829,16 +3263,16 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C14" r:id="rId5"/>
-    <hyperlink ref="C17" r:id="rId6"/>
-    <hyperlink ref="C18" r:id="rId7"/>
-    <hyperlink ref="C27" r:id="rId8"/>
-    <hyperlink ref="C28" r:id="rId9"/>
-    <hyperlink ref="C29" r:id="rId10"/>
-    <hyperlink ref="C30" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C31" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId5"/>
+    <hyperlink ref="C19" r:id="rId6"/>
+    <hyperlink ref="C20" r:id="rId7"/>
+    <hyperlink ref="C31" r:id="rId8"/>
+    <hyperlink ref="C32" r:id="rId9"/>
+    <hyperlink ref="C33" r:id="rId10"/>
+    <hyperlink ref="C34" r:id="rId11"/>
+    <hyperlink ref="C18" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C35" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId15"/>
@@ -2847,23 +3281,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="2"/>
-    <col min="5" max="5" width="52.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="2"/>
+    <col min="5" max="5" width="52.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1">
+    <row r="1" spans="1:8" s="18" customFormat="1" ht="30">
       <c r="A1" s="6" t="s">
         <v>67</v>
       </c>
@@ -2884,12 +3318,12 @@
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="19" customFormat="1" ht="47.25" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
@@ -2898,36 +3332,36 @@
         <v>9</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:8" s="19" customFormat="1" ht="70.5">
+    <row r="3" spans="1:8" s="19" customFormat="1" ht="86.25">
       <c r="A3" s="24"/>
       <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:8" s="19" customFormat="1" ht="84.5">
+    <row r="4" spans="1:8" s="19" customFormat="1" ht="86.25">
       <c r="A4" s="24"/>
       <c r="B4" s="20" t="s">
         <v>13</v>
@@ -2936,17 +3370,17 @@
         <v>14</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:8" s="19" customFormat="1" ht="112.5">
+    <row r="5" spans="1:8" s="19" customFormat="1" ht="114.75">
       <c r="A5" s="24"/>
       <c r="B5" s="20" t="s">
         <v>16</v>
@@ -2955,77 +3389,77 @@
         <v>19</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:8" s="19" customFormat="1" ht="138.5">
+    <row r="6" spans="1:8" s="19" customFormat="1" ht="141">
       <c r="A6" s="24"/>
       <c r="B6" s="20" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="19" customFormat="1" ht="56.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="19" customFormat="1" ht="57.75">
       <c r="A7" s="24"/>
       <c r="B7" s="20" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:8" s="19" customFormat="1" ht="70.5">
+    <row r="8" spans="1:8" s="19" customFormat="1" ht="86.25">
       <c r="A8" s="24"/>
       <c r="B8" s="20" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:8" s="19" customFormat="1" ht="26">
+    <row r="9" spans="1:8" s="19" customFormat="1" ht="26.25">
       <c r="A9" s="24"/>
       <c r="B9" s="20" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -3033,65 +3467,65 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:8" s="19" customFormat="1" ht="101">
+    <row r="10" spans="1:8" s="19" customFormat="1" ht="102.75">
       <c r="A10" s="24"/>
       <c r="B10" s="20" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:8" s="19" customFormat="1" ht="38.5">
+    <row r="11" spans="1:8" s="19" customFormat="1" ht="39">
       <c r="A11" s="24"/>
       <c r="B11" s="20" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:8" s="19" customFormat="1" ht="70.5">
+    <row r="12" spans="1:8" s="19" customFormat="1" ht="72">
       <c r="A12" s="24"/>
       <c r="B12" s="20" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" s="19" customFormat="1">
       <c r="A13" s="24"/>
       <c r="B13" s="20" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
@@ -3099,739 +3533,1256 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:8" s="19" customFormat="1" ht="56.5">
+    <row r="14" spans="1:8" s="19" customFormat="1" ht="57.75">
       <c r="A14" s="24"/>
       <c r="B14" s="20" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:8" s="19" customFormat="1" ht="98.5">
+    <row r="15" spans="1:8" s="19" customFormat="1" ht="114.75">
       <c r="A15" s="24"/>
       <c r="B15" s="20" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="1:8" s="19" customFormat="1" ht="51">
+    <row r="16" spans="1:8" s="19" customFormat="1" ht="51.75">
       <c r="A16" s="24"/>
       <c r="B16" s="20" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" ht="29">
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="30">
       <c r="A17" s="24"/>
       <c r="B17" s="20" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" ht="101">
+    <row r="18" spans="1:7" s="19" customFormat="1" ht="102.75">
       <c r="A18" s="24"/>
       <c r="B18" s="20" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" s="19" customFormat="1" ht="29">
+    <row r="19" spans="1:7" s="19" customFormat="1" ht="30">
       <c r="A19" s="24"/>
       <c r="B19" s="20" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7" s="19" customFormat="1" ht="29">
+    <row r="20" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A20" s="24"/>
       <c r="B20" s="20" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:7" s="19" customFormat="1" ht="56.5">
+    <row r="21" spans="1:7" s="19" customFormat="1" ht="57.75">
       <c r="A21" s="24"/>
       <c r="B21" s="20" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" ht="98.5">
+    <row r="22" spans="1:7" s="19" customFormat="1" ht="100.5">
       <c r="A22" s="24"/>
       <c r="B22" s="20" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" spans="1:7" s="19" customFormat="1" ht="38.5">
+    <row r="23" spans="1:7" s="19" customFormat="1" ht="39">
       <c r="A23" s="24"/>
       <c r="B23" s="20" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" spans="1:7" s="19" customFormat="1" ht="38.5">
+    <row r="24" spans="1:7" s="19" customFormat="1" ht="51.75">
       <c r="A24" s="24"/>
       <c r="B24" s="20" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="1:7" s="19" customFormat="1" ht="29">
+    <row r="25" spans="1:7" s="19" customFormat="1" ht="30">
       <c r="A25" s="24"/>
       <c r="B25" s="20" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:7" s="19" customFormat="1" ht="43.5">
+    <row r="26" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A26" s="24"/>
       <c r="B26" s="20" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="19" customFormat="1" ht="76">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="19" customFormat="1" ht="77.25">
       <c r="A27" s="24"/>
       <c r="B27" s="20" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:7" s="19" customFormat="1">
       <c r="A28" s="24"/>
       <c r="B28" s="20" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:7" s="19" customFormat="1" ht="43.5">
+    <row r="29" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A29" s="24"/>
       <c r="B29" s="20" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:7" s="19" customFormat="1" ht="38.5">
+    <row r="30" spans="1:7" s="19" customFormat="1" ht="51.75">
       <c r="A30" s="24"/>
       <c r="B30" s="20" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="18" customFormat="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" s="19" customFormat="1" ht="88.5">
-      <c r="A32" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>22</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="19" customFormat="1" ht="45">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="19" customFormat="1" ht="45">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24" t="s">
+        <v>248</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" s="19" customFormat="1" ht="76">
+        <v>262</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A33" s="24"/>
-      <c r="B33" s="20" t="s">
-        <v>26</v>
+      <c r="B33" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" s="19" customFormat="1" ht="126.5">
+        <v>263</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A34" s="24"/>
-      <c r="B34" s="20" t="s">
-        <v>21</v>
+      <c r="B34" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7" s="19" customFormat="1" ht="42.5">
+        <v>263</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="19" customFormat="1" ht="30">
       <c r="A35" s="24"/>
-      <c r="B35" s="20" t="s">
-        <v>10</v>
+      <c r="B35" s="24" t="s">
+        <v>252</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" s="19" customFormat="1" ht="51">
+        <v>254</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="19" customFormat="1" ht="30">
       <c r="A36" s="24"/>
-      <c r="B36" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7" s="19" customFormat="1" ht="51">
+      <c r="B36" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A37" s="24"/>
-      <c r="B37" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" s="19" customFormat="1" ht="43.5">
-      <c r="A38" s="24"/>
-      <c r="B38" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" s="19" customFormat="1" ht="29">
-      <c r="A39" s="24"/>
-      <c r="B39" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" s="29" customFormat="1" ht="87">
+      <c r="B37" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="29" customFormat="1" ht="90">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7" s="29" customFormat="1" ht="90">
+      <c r="A39" s="26"/>
+      <c r="B39" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="1:7" s="29" customFormat="1" ht="30">
       <c r="A40" s="26"/>
       <c r="B40" s="27" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>172</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="F40" s="26"/>
       <c r="G40" s="27"/>
     </row>
-    <row r="41" spans="1:7" s="19" customFormat="1" ht="29">
-      <c r="A41" s="24"/>
-      <c r="B41" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" s="19" customFormat="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:7" s="19" customFormat="1" ht="29">
-      <c r="A43" s="24"/>
-      <c r="B43" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:7" s="19" customFormat="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-    </row>
-    <row r="45" spans="1:7" s="19" customFormat="1" ht="29">
+    <row r="41" spans="1:7" s="29" customFormat="1" ht="45">
+      <c r="A41" s="26"/>
+      <c r="B41" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="1:7" s="29" customFormat="1" ht="45">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="1:7" s="18" customFormat="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" s="19" customFormat="1" ht="90">
+      <c r="A44" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" s="19" customFormat="1" ht="77.25">
       <c r="A45" s="24"/>
       <c r="B45" s="20" t="s">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="19" customFormat="1">
+        <v>27</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="1:7" s="19" customFormat="1" ht="129">
       <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-    </row>
-    <row r="47" spans="1:7" s="19" customFormat="1" ht="43.5">
+      <c r="B46" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:7" s="19" customFormat="1" ht="57.75">
       <c r="A47" s="24"/>
-      <c r="B47" s="24" t="s">
-        <v>109</v>
+      <c r="B47" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="19" customFormat="1" ht="42.5">
-      <c r="A48" s="24" t="s">
-        <v>114</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="1:7" s="19" customFormat="1" ht="51.75">
+      <c r="A48" s="24"/>
       <c r="B48" s="20" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>117</v>
+        <v>97</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="19" customFormat="1" ht="29">
+        <v>15</v>
+      </c>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" s="19" customFormat="1" ht="51.75">
       <c r="A49" s="24"/>
       <c r="B49" s="20" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="19" customFormat="1" ht="70.5">
+        <v>18</v>
+      </c>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:7" s="19" customFormat="1" ht="75">
       <c r="A50" s="24"/>
       <c r="B50" s="20" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="19" customFormat="1" ht="38.5">
+        <v>209</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:7" s="19" customFormat="1" ht="30">
       <c r="A51" s="24"/>
       <c r="B51" s="20" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="19" customFormat="1" ht="76">
-      <c r="A52" s="24"/>
-      <c r="B52" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="19" customFormat="1" ht="29">
+        <v>211</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="1:7" s="29" customFormat="1" ht="90">
+      <c r="A52" s="26"/>
+      <c r="B52" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A53" s="24"/>
       <c r="B53" s="20" t="s">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="19" customFormat="1" ht="43.5">
+        <v>218</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:7" s="19" customFormat="1">
       <c r="A54" s="24"/>
-      <c r="B54" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="19" customFormat="1" ht="29">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A55" s="24"/>
       <c r="B55" s="20" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="D55" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" s="19" customFormat="1">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" s="19" customFormat="1" ht="45">
+      <c r="A57" s="24"/>
+      <c r="B57" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="19" customFormat="1">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" s="19" customFormat="1" ht="45">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="19" customFormat="1" ht="45">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="19" customFormat="1" ht="45">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="19" customFormat="1" ht="45">
+      <c r="A62" s="24"/>
+      <c r="B62" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="19" customFormat="1" ht="45">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="19" customFormat="1" ht="30">
+      <c r="A64" s="24"/>
+      <c r="B64" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="19" customFormat="1" ht="30">
+      <c r="A65" s="24"/>
+      <c r="B65" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="37" customFormat="1" ht="30">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="29" customFormat="1" ht="90">
+      <c r="A67" s="26"/>
+      <c r="B67" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="G67" s="27"/>
+    </row>
+    <row r="68" spans="1:7" s="29" customFormat="1" ht="90">
+      <c r="A68" s="26"/>
+      <c r="B68" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G68" s="27"/>
+    </row>
+    <row r="69" spans="1:7" s="29" customFormat="1" ht="90">
+      <c r="A69" s="26"/>
+      <c r="B69" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G69" s="27"/>
+    </row>
+    <row r="70" spans="1:7" s="29" customFormat="1" ht="90">
+      <c r="A70" s="26"/>
+      <c r="B70" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G70" s="27"/>
+    </row>
+    <row r="71" spans="1:7" s="39" customFormat="1">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+    </row>
+    <row r="72" spans="1:7" s="19" customFormat="1" ht="57.75">
+      <c r="A72" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="19" customFormat="1" ht="30">
+      <c r="A73" s="24"/>
+      <c r="B73" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="19" customFormat="1" ht="100.5">
+      <c r="A74" s="24"/>
+      <c r="B74" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="19" customFormat="1" ht="39">
+      <c r="A75" s="24"/>
+      <c r="B75" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="19" customFormat="1" ht="77.25">
+      <c r="A76" s="24"/>
+      <c r="B76" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="19" customFormat="1" ht="30">
+      <c r="A77" s="24"/>
+      <c r="B77" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="19" customFormat="1" ht="45">
+      <c r="A78" s="24"/>
+      <c r="B78" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="30"/>
-      <c r="B60" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="31"/>
-      <c r="B61" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="B62" s="2" t="s">
-        <v>242</v>
+      <c r="C78" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="19" customFormat="1" ht="30">
+      <c r="A79" s="24"/>
+      <c r="B79" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="19" customFormat="1" ht="45">
+      <c r="A80" s="24"/>
+      <c r="B80" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="19" customFormat="1" ht="45">
+      <c r="A81" s="24"/>
+      <c r="B81" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="19" customFormat="1" ht="45">
+      <c r="A82" s="24"/>
+      <c r="B82" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="19" customFormat="1" ht="45">
+      <c r="A83" s="24"/>
+      <c r="B83" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="19" customFormat="1" ht="30">
+      <c r="A84" s="24"/>
+      <c r="B84" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="19" customFormat="1" ht="30">
+      <c r="A85" s="24"/>
+      <c r="B85" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="19" customFormat="1" ht="30">
+      <c r="A86" s="24"/>
+      <c r="B86" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="39" customFormat="1">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+    </row>
+    <row r="88" spans="1:6" s="39" customFormat="1">
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+    </row>
+    <row r="89" spans="1:6" s="39" customFormat="1">
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+    </row>
+    <row r="90" spans="1:6" s="39" customFormat="1">
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="30"/>
+      <c r="B91" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="31"/>
+      <c r="B92" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3840,49 +4791,66 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C32" r:id="rId5"/>
-    <hyperlink ref="C36" r:id="rId6"/>
-    <hyperlink ref="C37" r:id="rId7"/>
-    <hyperlink ref="C48" r:id="rId8"/>
-    <hyperlink ref="C49" r:id="rId9"/>
-    <hyperlink ref="C50" r:id="rId10"/>
-    <hyperlink ref="C51" r:id="rId11"/>
-    <hyperlink ref="C34" r:id="rId12"/>
-    <hyperlink ref="C33" r:id="rId13"/>
-    <hyperlink ref="C53" r:id="rId14"/>
-    <hyperlink ref="C35" r:id="rId15"/>
-    <hyperlink ref="C7" r:id="rId16"/>
-    <hyperlink ref="C8" r:id="rId17"/>
-    <hyperlink ref="C10" r:id="rId18"/>
-    <hyperlink ref="C16" r:id="rId19"/>
-    <hyperlink ref="C17" r:id="rId20"/>
-    <hyperlink ref="C19" r:id="rId21"/>
-    <hyperlink ref="C20" r:id="rId22"/>
-    <hyperlink ref="C21" r:id="rId23"/>
-    <hyperlink ref="C23" r:id="rId24"/>
-    <hyperlink ref="C24" r:id="rId25"/>
-    <hyperlink ref="C12" r:id="rId26"/>
-    <hyperlink ref="C11" r:id="rId27"/>
-    <hyperlink ref="C25" r:id="rId28"/>
-    <hyperlink ref="C26" r:id="rId29"/>
-    <hyperlink ref="C27" r:id="rId30"/>
-    <hyperlink ref="C30" r:id="rId31"/>
-    <hyperlink ref="C22" r:id="rId32"/>
-    <hyperlink ref="C18" r:id="rId33"/>
-    <hyperlink ref="C14" r:id="rId34"/>
-    <hyperlink ref="C6" r:id="rId35"/>
-    <hyperlink ref="C29" r:id="rId36"/>
-    <hyperlink ref="C55" r:id="rId37"/>
-    <hyperlink ref="C54" r:id="rId38"/>
-    <hyperlink ref="C39" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C43" r:id="rId41"/>
-    <hyperlink ref="C45" r:id="rId42"/>
-    <hyperlink ref="C47" r:id="rId43"/>
-    <hyperlink ref="C38" r:id="rId44"/>
-    <hyperlink ref="C40" r:id="rId45"/>
-    <hyperlink ref="C15" r:id="rId46"/>
-    <hyperlink ref="C52" r:id="rId47"/>
+    <hyperlink ref="C44" r:id="rId5"/>
+    <hyperlink ref="C48" r:id="rId6"/>
+    <hyperlink ref="C49" r:id="rId7"/>
+    <hyperlink ref="C46" r:id="rId8"/>
+    <hyperlink ref="C45" r:id="rId9"/>
+    <hyperlink ref="C47" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="C8" r:id="rId12"/>
+    <hyperlink ref="C10" r:id="rId13"/>
+    <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="C20" r:id="rId17"/>
+    <hyperlink ref="C21" r:id="rId18"/>
+    <hyperlink ref="C23" r:id="rId19"/>
+    <hyperlink ref="C24" r:id="rId20"/>
+    <hyperlink ref="C12" r:id="rId21"/>
+    <hyperlink ref="C11" r:id="rId22"/>
+    <hyperlink ref="C25" r:id="rId23"/>
+    <hyperlink ref="C26" r:id="rId24"/>
+    <hyperlink ref="C27" r:id="rId25"/>
+    <hyperlink ref="C30" r:id="rId26"/>
+    <hyperlink ref="C22" r:id="rId27"/>
+    <hyperlink ref="C18" r:id="rId28"/>
+    <hyperlink ref="C14" r:id="rId29"/>
+    <hyperlink ref="C6" r:id="rId30"/>
+    <hyperlink ref="C29" r:id="rId31"/>
+    <hyperlink ref="C79" r:id="rId32"/>
+    <hyperlink ref="C51" r:id="rId33"/>
+    <hyperlink ref="C53" r:id="rId34"/>
+    <hyperlink ref="C55" r:id="rId35"/>
+    <hyperlink ref="C57" r:id="rId36"/>
+    <hyperlink ref="C59" r:id="rId37"/>
+    <hyperlink ref="C50" r:id="rId38"/>
+    <hyperlink ref="C52" r:id="rId39"/>
+    <hyperlink ref="C15" r:id="rId40"/>
+    <hyperlink ref="C84" r:id="rId41"/>
+    <hyperlink ref="C35" r:id="rId42"/>
+    <hyperlink ref="C64" r:id="rId43"/>
+    <hyperlink ref="C76" r:id="rId44"/>
+    <hyperlink ref="C78" r:id="rId45"/>
+    <hyperlink ref="C77" r:id="rId46"/>
+    <hyperlink ref="C75" r:id="rId47"/>
+    <hyperlink ref="C74" r:id="rId48"/>
+    <hyperlink ref="C73" r:id="rId49"/>
+    <hyperlink ref="C72" r:id="rId50"/>
+    <hyperlink ref="C31" r:id="rId51"/>
+    <hyperlink ref="C32" r:id="rId52"/>
+    <hyperlink ref="C33" r:id="rId53"/>
+    <hyperlink ref="C34" r:id="rId54"/>
+    <hyperlink ref="C60" r:id="rId55"/>
+    <hyperlink ref="C61" r:id="rId56"/>
+    <hyperlink ref="C62" r:id="rId57"/>
+    <hyperlink ref="C63" r:id="rId58"/>
+    <hyperlink ref="C67" r:id="rId59"/>
+    <hyperlink ref="C68" r:id="rId60"/>
+    <hyperlink ref="C69" r:id="rId61"/>
+    <hyperlink ref="C70" r:id="rId62"/>
+    <hyperlink ref="C41" r:id="rId63"/>
+    <hyperlink ref="C42" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3896,12 +4864,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3975,13 +4943,13 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="49.26953125" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
@@ -4028,7 +4996,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">

--- a/assets/wankey_UI_Task_list_detail.xlsx
+++ b/assets/wankey_UI_Task_list_detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26458\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26458\Desktop\lupagitlatest3\Lupa\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="331">
   <si>
     <t>Module</t>
   </si>
@@ -965,272 +965,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Yearly
-UI :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Completed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integration : Completed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Monthly : 
-UI : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Yet to start
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Yet to start
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Weekly :
-UI :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Completed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Completed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This Week :
-UI : Completed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:Completed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>12/01/2019 :  Monthly report API and UI issues pending</t>
   </si>
   <si>
@@ -1238,13 +972,6 @@
   </si>
   <si>
     <t>Add To Faourite</t>
-  </si>
-  <si>
-    <t>12/01/2019 : API changes is pending . Report type should be added in API response</t>
-  </si>
-  <si>
-    <t>12/01/2019 : 
-UI and integration is almost completed. Only 20% of work is pending</t>
   </si>
   <si>
     <r>
@@ -1720,12 +1447,1081 @@
   <si>
     <t>product_name</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Completed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: In Progress</t>
+    </r>
+  </si>
+  <si>
+    <t>Chart Section</t>
+  </si>
+  <si>
+    <t>this week report</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/years_filter_list</t>
+  </si>
+  <si>
+    <t>username, product_name</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/yearly_licenses_used_year_filter</t>
+  </si>
+  <si>
+    <t>weekly report user filter</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/weekly_licenses_used_user_filter</t>
+  </si>
+  <si>
+    <t>username, product_name, type, chart_type, filter_user</t>
+  </si>
+  <si>
+    <t>this week report user filter</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/this_week_licenses_used_user_filter</t>
+  </si>
+  <si>
+    <t>yearly Report</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/yearly_licenses_used_year_dept_filter</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/yearly_licenses_used_year_user_filter</t>
+  </si>
+  <si>
+    <t>weekly Report</t>
+  </si>
+  <si>
+    <t>weekly report department filter</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/weekly_licenses_used_dept_filter</t>
+  </si>
+  <si>
+    <t>username, product_name, type, chart_type, filter_department</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/weekly_licenses_used_user_filter</t>
+  </si>
+  <si>
+    <t>this week Report user filter</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/this_week_licenses_used_user_filter</t>
+  </si>
+  <si>
+    <t>this week Report department filter</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/this_week_licenses_used_dept_filter</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/notification_ok</t>
+  </si>
+  <si>
+    <t>department filter</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/filter_dept_list</t>
+  </si>
+  <si>
+    <t>user filter</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/filter_users_list</t>
+  </si>
+  <si>
+    <t>cost analytics</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/admin/cost_analytics</t>
+  </si>
+  <si>
+    <t>products list</t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/products_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">users filter </t>
+  </si>
+  <si>
+    <t>http://kaizenat.com/LUPA/departmentmanager/filter_users_list</t>
+  </si>
+  <si>
+    <t>12/01/2019 : 
+UI and integration is almost completed. Saturation chart is pending</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yearly
+UI :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Monthly : 
+UI : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Completed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Yet to start
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Weekly :
+UI :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This Week :
+UI : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>15/01/2019</t>
+  </si>
+  <si>
+    <t>CHART SECTION</t>
+  </si>
+  <si>
+    <t>12/01/2019 : API changes is pending . Report type should be added in API response
+15/01/2019 : API changes are done . Minor UI issues are pending</t>
+  </si>
+  <si>
+    <t>15/1/2019</t>
+  </si>
+  <si>
+    <t>Report Filters for yearly, Weekly and this week chart</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Real time Utilization
+UI :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recent Reports : 
+UI : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Last 5 minutes data :
+UI :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Todays data :
+UI : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:Completed
+Saturation Chart: 
+UI : Completed
+Integration : Pending
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Real time Utilization
+UI :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recent Reports : 
+UI : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Last 5 minutes data :
+UI :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Todays data :
+UI : Completed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:Completed
+Saturation Chart: 
+UI : completed
+Integration : Pending
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Cost Analysis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : In Progress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Yet to start</t>
+    </r>
+  </si>
+  <si>
+    <t>14/1/2019</t>
+  </si>
+  <si>
+    <t>16/1/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1810,8 +2606,62 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1848,8 +2698,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1898,12 +2760,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2015,6 +2886,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2345,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2359,7 +3269,7 @@
     <col min="4" max="4" width="30.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="17" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="17" customWidth="1"/>
     <col min="9" max="9" width="23.140625" style="17" customWidth="1"/>
     <col min="10" max="10" width="50.42578125" style="2" customWidth="1"/>
@@ -2587,132 +3497,126 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="330">
-      <c r="B10" s="7" t="s">
-        <v>52</v>
-      </c>
+    <row r="10" spans="1:10" s="6" customFormat="1">
+      <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="B12" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G10" s="16">
-        <v>43462</v>
-      </c>
-      <c r="H10" s="16">
-        <v>43473</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="6" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" ht="26.25">
-      <c r="B11" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G11" s="16">
-        <v>43709</v>
-      </c>
-      <c r="H11" s="16">
-        <v>43770</v>
-      </c>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="B12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>231</v>
-      </c>
       <c r="G12" s="16">
-        <v>43709</v>
-      </c>
-      <c r="H12" s="16">
-        <v>43770</v>
+        <v>43467</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="I12" s="15"/>
-      <c r="J12" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="255">
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="39">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6" t="s">
-        <v>232</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="G13" s="16">
-        <v>43466</v>
-      </c>
-      <c r="H13" s="16">
-        <v>43678</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="30">
+        <v>43457</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="77.25">
       <c r="B14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6" t="s">
-        <v>240</v>
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="G14" s="16">
-        <v>43800</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" ht="30">
+        <v>43457</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="57.75">
       <c r="B15" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6" t="s">
-        <v>240</v>
+        <v>21</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G15" s="16">
-        <v>43467</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="I15" s="15"/>
+        <v>43457</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" ht="39">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>90</v>
@@ -2727,21 +3631,21 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="77.25">
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="39">
       <c r="B17" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>94</v>
+        <v>18</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="G17" s="16">
         <v>43457</v>
@@ -2753,473 +3657,375 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" ht="57.75">
-      <c r="B18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="7" t="s">
+    <row r="18" spans="1:10" s="32" customFormat="1" ht="30">
+      <c r="B18" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G18" s="35">
+        <v>43801</v>
+      </c>
+      <c r="H18" s="35">
+        <v>43469</v>
+      </c>
+      <c r="I18" s="35">
+        <v>43469</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="16">
-        <v>43457</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="39">
-      <c r="B19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="G19" s="16">
-        <v>43457</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="39">
+        <v>43467</v>
+      </c>
+      <c r="H19" s="16">
+        <v>43463</v>
+      </c>
+      <c r="I19" s="16">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="B20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G20" s="16">
-        <v>43457</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="32" customFormat="1" ht="30">
-      <c r="B21" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" s="35">
-        <v>43801</v>
-      </c>
-      <c r="H21" s="35">
-        <v>43469</v>
-      </c>
-      <c r="I21" s="35">
-        <v>43469</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" ht="26.25">
-      <c r="B22" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>231</v>
+        <v>43459</v>
+      </c>
+      <c r="H20" s="16">
+        <v>43462</v>
+      </c>
+      <c r="I20" s="16">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="A21" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G21" s="16">
+        <v>43800</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="B22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="G22" s="16">
-        <v>43709</v>
-      </c>
-      <c r="H22" s="16">
-        <v>43770</v>
+        <v>43467</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="B23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G23" s="16">
-        <v>43709</v>
-      </c>
-      <c r="H23" s="16">
-        <v>43770</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" ht="330">
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="43.5" customHeight="1">
       <c r="B24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G24" s="16">
-        <v>43462</v>
-      </c>
-      <c r="H24" s="16">
-        <v>43473</v>
-      </c>
-      <c r="I24" s="15"/>
+        <v>41</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="J24" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="255">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="43.5" customHeight="1">
       <c r="B25" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="16">
-        <v>43467</v>
-      </c>
-      <c r="H25" s="16">
-        <v>43473</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="39" customHeight="1">
+      <c r="B26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" ht="39.75" customHeight="1">
+      <c r="B27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="6" customFormat="1">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="31" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="16">
+        <v>43460</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="16">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="59" customFormat="1" ht="21" customHeight="1">
+      <c r="H32" s="59" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="3" customFormat="1">
+      <c r="A34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75">
+      <c r="A35" s="60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1" ht="255">
+      <c r="B36" s="7" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="B26" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G26" s="16">
-        <v>43467</v>
-      </c>
-      <c r="H26" s="16">
-        <v>43473</v>
-      </c>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" ht="26.25">
-      <c r="B27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="16">
-        <v>43467</v>
-      </c>
-      <c r="H27" s="16">
-        <v>43463</v>
-      </c>
-      <c r="I27" s="16">
-        <v>43468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" ht="26.25">
-      <c r="B28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="16">
-        <v>43459</v>
-      </c>
-      <c r="H28" s="16">
-        <v>43462</v>
-      </c>
-      <c r="I28" s="16">
-        <v>43460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="A29" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G29" s="16">
-        <v>43800</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="B30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G30" s="16">
-        <v>43467</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" s="6" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" s="6" customFormat="1" ht="39" customHeight="1">
-      <c r="B34" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" s="6" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" s="6" customFormat="1" ht="330">
-      <c r="B36" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="G36" s="16">
-        <v>43462</v>
-      </c>
-      <c r="H36" s="16">
-        <v>43473</v>
+        <v>43497</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" s="6" customFormat="1" ht="26.25">
-      <c r="B37" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F37" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="6" customFormat="1" ht="330">
+      <c r="B37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B38" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G38" s="16">
         <v>43709</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H38" s="16">
         <v>43770</v>
       </c>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" spans="2:10" s="6" customFormat="1" ht="255">
-      <c r="B38" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G38" s="16">
-        <v>43467</v>
-      </c>
-      <c r="H38" s="16">
-        <v>43473</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" s="6" customFormat="1" ht="30">
+      <c r="I38" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1" ht="60">
       <c r="B39" s="10" t="s">
         <v>69</v>
       </c>
@@ -3232,29 +4038,235 @@
       <c r="H39" s="16">
         <v>43770</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="15" t="s">
+        <v>239</v>
+      </c>
       <c r="J39" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" s="6" customFormat="1" ht="26.25">
-      <c r="B40" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="16">
-        <v>43460</v>
-      </c>
-      <c r="H40" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="6" customFormat="1" ht="255">
+      <c r="B42" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G42" s="16">
+        <v>43497</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="6" customFormat="1" ht="330">
+      <c r="B43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I40" s="16">
-        <v>43460</v>
+      <c r="H43" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B44" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="16">
+        <v>43709</v>
+      </c>
+      <c r="H44" s="16">
+        <v>43770</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="60">
+      <c r="B45" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="16">
+        <v>43709</v>
+      </c>
+      <c r="H45" s="16">
+        <v>43770</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="B46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="61" customFormat="1" ht="30">
+      <c r="B47" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C47" s="63"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="I47" s="64"/>
+    </row>
+    <row r="49" spans="1:10" s="6" customFormat="1" ht="255">
+      <c r="A49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G49" s="16">
+        <v>43497</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="6" customFormat="1" ht="330">
+      <c r="B50" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="I50" s="15"/>
+      <c r="J50" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="6" customFormat="1" ht="26.25">
+      <c r="B51" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G51" s="16">
+        <v>43709</v>
+      </c>
+      <c r="H51" s="16">
+        <v>43770</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="6" customFormat="1" ht="60">
+      <c r="B52" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52" s="16">
+        <v>43709</v>
+      </c>
+      <c r="H52" s="16">
+        <v>43770</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="B53" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G53" s="16">
+        <v>43800</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3263,16 +4275,16 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C16" r:id="rId5"/>
-    <hyperlink ref="C19" r:id="rId6"/>
-    <hyperlink ref="C20" r:id="rId7"/>
-    <hyperlink ref="C31" r:id="rId8"/>
-    <hyperlink ref="C32" r:id="rId9"/>
-    <hyperlink ref="C33" r:id="rId10"/>
-    <hyperlink ref="C34" r:id="rId11"/>
-    <hyperlink ref="C18" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C35" r:id="rId14"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="C16" r:id="rId6"/>
+    <hyperlink ref="C17" r:id="rId7"/>
+    <hyperlink ref="C23" r:id="rId8"/>
+    <hyperlink ref="C24" r:id="rId9"/>
+    <hyperlink ref="C25" r:id="rId10"/>
+    <hyperlink ref="C26" r:id="rId11"/>
+    <hyperlink ref="C15" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C27" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId15"/>
@@ -3281,10 +4293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3294,7 +4306,7 @@
     <col min="3" max="3" width="29.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="2"/>
     <col min="5" max="5" width="52.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="145.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" ht="30">
@@ -3834,122 +4846,122 @@
     <row r="31" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A31" s="24"/>
       <c r="B31" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A32" s="24"/>
       <c r="B32" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A33" s="24"/>
       <c r="B33" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A34" s="24"/>
       <c r="B34" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="19" customFormat="1" ht="30">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="19" customFormat="1" ht="135">
       <c r="A35" s="24"/>
       <c r="B35" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="19" customFormat="1" ht="30">
       <c r="A36" s="24"/>
       <c r="B36" s="24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A37" s="24"/>
       <c r="B37" s="24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="29" customFormat="1" ht="90">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="29" customFormat="1" ht="30">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>97</v>
@@ -3958,13 +4970,13 @@
       <c r="F38" s="26"/>
       <c r="G38" s="27"/>
     </row>
-    <row r="39" spans="1:7" s="29" customFormat="1" ht="90">
+    <row r="39" spans="1:7" s="29" customFormat="1" ht="30">
       <c r="A39" s="26"/>
       <c r="B39" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>97</v>
@@ -3976,16 +4988,16 @@
     <row r="40" spans="1:7" s="29" customFormat="1" ht="30">
       <c r="A40" s="26"/>
       <c r="B40" s="27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="27"/>
@@ -3993,16 +5005,16 @@
     <row r="41" spans="1:7" s="29" customFormat="1" ht="45">
       <c r="A41" s="26"/>
       <c r="B41" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>281</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>284</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="27"/>
@@ -4010,16 +5022,16 @@
     <row r="42" spans="1:7" s="29" customFormat="1" ht="45">
       <c r="A42" s="26"/>
       <c r="B42" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D42" s="26" t="s">
         <v>97</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="27"/>
@@ -4301,172 +5313,172 @@
     <row r="60" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A60" s="24"/>
       <c r="B60" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A61" s="24"/>
       <c r="B61" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A62" s="24"/>
       <c r="B62" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A63" s="24"/>
       <c r="B63" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="19" customFormat="1" ht="30">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="19" customFormat="1" ht="135">
       <c r="A64" s="24"/>
       <c r="B64" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="19" customFormat="1" ht="30">
       <c r="A65" s="24"/>
       <c r="B65" s="24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="24" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="37" customFormat="1" ht="30">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="37" customFormat="1" ht="45">
       <c r="A66" s="36"/>
       <c r="B66" s="36" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D66" s="40" t="s">
         <v>97</v>
       </c>
       <c r="E66" s="36"/>
       <c r="F66" s="36" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="29" customFormat="1" ht="90">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="29" customFormat="1" ht="30">
       <c r="A67" s="26"/>
       <c r="B67" s="27" t="s">
         <v>74</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
       <c r="F67" s="26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G67" s="27"/>
     </row>
-    <row r="68" spans="1:7" s="29" customFormat="1" ht="90">
+    <row r="68" spans="1:7" s="29" customFormat="1" ht="30">
       <c r="A68" s="26"/>
       <c r="B68" s="27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
       <c r="F68" s="26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G68" s="27"/>
     </row>
-    <row r="69" spans="1:7" s="29" customFormat="1" ht="90">
+    <row r="69" spans="1:7" s="29" customFormat="1" ht="30">
       <c r="A69" s="26"/>
       <c r="B69" s="27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
       <c r="F69" s="26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G69" s="27"/>
     </row>
-    <row r="70" spans="1:7" s="29" customFormat="1" ht="90">
+    <row r="70" spans="1:7" s="29" customFormat="1" ht="45">
       <c r="A70" s="26"/>
       <c r="B70" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G70" s="27"/>
     </row>
@@ -4627,113 +5639,113 @@
     <row r="80" spans="1:7" s="19" customFormat="1" ht="45">
       <c r="A80" s="24"/>
       <c r="B80" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="19" customFormat="1" ht="45">
       <c r="A81" s="24"/>
       <c r="B81" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="19" customFormat="1" ht="45">
       <c r="A82" s="24"/>
       <c r="B82" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="19" customFormat="1" ht="45">
       <c r="A83" s="24"/>
       <c r="B83" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="19" customFormat="1" ht="30">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="19" customFormat="1" ht="135">
       <c r="A84" s="24"/>
       <c r="B84" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="19" customFormat="1" ht="30">
       <c r="A85" s="24"/>
       <c r="B85" s="24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="24" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="19" customFormat="1" ht="30">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="19" customFormat="1" ht="45">
       <c r="A86" s="24"/>
       <c r="B86" s="24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="39" customFormat="1">
@@ -4760,28 +5772,609 @@
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6" s="39" customFormat="1">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="30"/>
-      <c r="B91" s="2" t="s">
+    <row r="90" spans="1:6" s="44" customFormat="1" ht="23.25">
+      <c r="A90" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+    </row>
+    <row r="92" spans="1:6" s="19" customFormat="1">
+      <c r="A92" s="24"/>
+      <c r="B92" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D92" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="57" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="19" customFormat="1">
+      <c r="A93" s="24"/>
+      <c r="B93" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="C93" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="24"/>
+      <c r="F93" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="19" customFormat="1">
+      <c r="A94" s="24"/>
+      <c r="B94" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="19" customFormat="1">
+      <c r="A95" s="24"/>
+      <c r="B95" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D95" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" s="24"/>
+      <c r="F95" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="19" customFormat="1">
+      <c r="A96" s="24"/>
+      <c r="B96" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="D96" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="19" customFormat="1">
+      <c r="A97" s="24"/>
+      <c r="B97" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C97" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="D97" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="19" customFormat="1">
+      <c r="A98" s="24"/>
+      <c r="B98" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="D98" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E98" s="24"/>
+      <c r="F98" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="19" customFormat="1">
+      <c r="A99" s="24"/>
+      <c r="B99" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="54" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="19" customFormat="1">
+      <c r="A100" s="24"/>
+      <c r="B100" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C100" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="19" customFormat="1">
+      <c r="A101" s="24"/>
+      <c r="B101" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="C101" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="24"/>
+      <c r="F101" s="54" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="F102" s="45"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="F103" s="45"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="F104" s="45"/>
+    </row>
+    <row r="105" spans="1:6" s="19" customFormat="1">
+      <c r="A105" s="24"/>
+      <c r="B105" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="D105" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="19" customFormat="1">
+      <c r="A106" s="24"/>
+      <c r="B106" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C106" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="D106" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="54" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="19" customFormat="1">
+      <c r="A107" s="24"/>
+      <c r="B107" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="C107" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="D107" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="19" customFormat="1">
+      <c r="A108" s="24"/>
+      <c r="B108" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C108" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="D108" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="19" customFormat="1">
+      <c r="A109" s="24"/>
+      <c r="B109" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C109" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="D109" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="F109" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="19" customFormat="1">
+      <c r="A110" s="24"/>
+      <c r="B110" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="C110" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="D110" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E110" s="24"/>
+      <c r="F110" s="54" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="19" customFormat="1">
+      <c r="A111" s="24"/>
+      <c r="B111" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="C111" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="D111" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E111" s="24"/>
+      <c r="F111" s="54" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="19" customFormat="1">
+      <c r="A112" s="24"/>
+      <c r="B112" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C112" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="D112" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E112" s="24"/>
+      <c r="F112" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="19" customFormat="1">
+      <c r="A113" s="24"/>
+      <c r="B113" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="C113" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="D113" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E113" s="24"/>
+      <c r="F113" s="54" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="19" customFormat="1">
+      <c r="A114" s="24"/>
+      <c r="B114" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="C114" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D114" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="54" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="45"/>
+      <c r="F115" s="47"/>
+    </row>
+    <row r="116" spans="1:6" s="19" customFormat="1">
+      <c r="A116" s="24"/>
+      <c r="B116" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="D116" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E116" s="24"/>
+      <c r="F116" s="54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="19" customFormat="1">
+      <c r="A117" s="24"/>
+      <c r="B117" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="D117" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="F118" s="45"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="B119" s="45"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
+      <c r="F119" s="45"/>
+    </row>
+    <row r="120" spans="1:6" s="49" customFormat="1">
+      <c r="A120" s="31"/>
+      <c r="B120" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E120" s="31"/>
+      <c r="F120" s="51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="F121" s="45"/>
+    </row>
+    <row r="122" spans="1:6" s="26" customFormat="1" ht="30">
+      <c r="B122" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="26" customFormat="1" ht="30">
+      <c r="B123" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="26" customFormat="1" ht="30">
+      <c r="B124" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="26" customFormat="1" ht="45">
+      <c r="B125" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="26" customFormat="1"/>
+    <row r="127" spans="1:6" s="26" customFormat="1" ht="30">
+      <c r="B127" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="26" customFormat="1" ht="30">
+      <c r="B128" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
+      <c r="F129" s="45"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
+      <c r="F130" s="45"/>
+    </row>
+    <row r="131" spans="1:6" s="49" customFormat="1">
+      <c r="A131" s="31"/>
+      <c r="B131" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C131" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="D131" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" s="31"/>
+      <c r="F131" s="48"/>
+    </row>
+    <row r="132" spans="1:6" s="49" customFormat="1">
+      <c r="A132" s="31"/>
+      <c r="B132" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D132" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E132" s="31"/>
+      <c r="F132" s="48"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="B133" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C133" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="D133" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F133" s="45"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+      <c r="F134" s="45"/>
+    </row>
+    <row r="135" spans="1:6" s="49" customFormat="1">
+      <c r="A135" s="31"/>
+      <c r="B135" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="C135" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="D135" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E135" s="31"/>
+      <c r="F135" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="49" customFormat="1">
+      <c r="A136" s="31"/>
+      <c r="B136" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="C136" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="D136" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E136" s="31"/>
+      <c r="F136" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="30"/>
+      <c r="B144" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="31"/>
-      <c r="B92" s="2" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" s="31"/>
+      <c r="B145" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="B93" s="2" t="s">
+    <row r="146" spans="1:2">
+      <c r="B146" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4851,8 +6444,43 @@
     <hyperlink ref="C70" r:id="rId62"/>
     <hyperlink ref="C41" r:id="rId63"/>
     <hyperlink ref="C42" r:id="rId64"/>
+    <hyperlink ref="C92" r:id="rId65"/>
+    <hyperlink ref="C93" r:id="rId66"/>
+    <hyperlink ref="C94" r:id="rId67"/>
+    <hyperlink ref="C95" r:id="rId68"/>
+    <hyperlink ref="C96" r:id="rId69"/>
+    <hyperlink ref="C97" r:id="rId70"/>
+    <hyperlink ref="C98" r:id="rId71"/>
+    <hyperlink ref="C99" r:id="rId72"/>
+    <hyperlink ref="C100" r:id="rId73"/>
+    <hyperlink ref="C101" r:id="rId74"/>
+    <hyperlink ref="C105" r:id="rId75"/>
+    <hyperlink ref="C106" r:id="rId76"/>
+    <hyperlink ref="C107" r:id="rId77"/>
+    <hyperlink ref="C108" r:id="rId78"/>
+    <hyperlink ref="C109" r:id="rId79"/>
+    <hyperlink ref="C110" r:id="rId80"/>
+    <hyperlink ref="C111" r:id="rId81"/>
+    <hyperlink ref="C112" r:id="rId82"/>
+    <hyperlink ref="C113" r:id="rId83"/>
+    <hyperlink ref="C114" r:id="rId84"/>
+    <hyperlink ref="C116" r:id="rId85"/>
+    <hyperlink ref="C117" r:id="rId86"/>
+    <hyperlink ref="C120" r:id="rId87"/>
+    <hyperlink ref="C122" r:id="rId88"/>
+    <hyperlink ref="C123" r:id="rId89"/>
+    <hyperlink ref="C124" r:id="rId90"/>
+    <hyperlink ref="C125" r:id="rId91"/>
+    <hyperlink ref="C127" r:id="rId92"/>
+    <hyperlink ref="C131" r:id="rId93"/>
+    <hyperlink ref="C132" r:id="rId94"/>
+    <hyperlink ref="C133" r:id="rId95"/>
+    <hyperlink ref="C135" r:id="rId96"/>
+    <hyperlink ref="C136" r:id="rId97"/>
+    <hyperlink ref="C128" r:id="rId98"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId99"/>
 </worksheet>
 </file>
 
